--- a/Data/Weather Stations/lullymoreHortland.xlsx
+++ b/Data/Weather Stations/lullymoreHortland.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>max_temp</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>ballinala house (feb 10-Derrygreenagh)</t>
   </si>
   <si>
     <t>ballinla house</t>
@@ -104,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -113,14 +116,15 @@
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -378,6 +382,10 @@
       <c r="D2" s="3">
         <v>40179.0</v>
       </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -833,7 +841,7 @@
       <c r="A33" s="2">
         <v>7.5</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="6">
         <v>-1.4</v>
       </c>
       <c r="C33" s="1">
@@ -848,7 +856,7 @@
       <c r="A34" s="2">
         <v>9.4</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>0.0</v>
       </c>
       <c r="C34" s="1">
@@ -863,7 +871,7 @@
       <c r="A35" s="2">
         <v>9.2</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>2.5</v>
       </c>
       <c r="C35" s="1">
@@ -878,7 +886,7 @@
       <c r="A36" s="2">
         <v>9.4</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="6">
         <v>0.7</v>
       </c>
       <c r="C36" s="1">
@@ -893,7 +901,7 @@
       <c r="A37" s="2">
         <v>9.0</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="6">
         <v>3.1</v>
       </c>
       <c r="C37" s="1">
@@ -908,7 +916,7 @@
       <c r="A38" s="2">
         <v>5.0</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="6">
         <v>0.9</v>
       </c>
       <c r="C38" s="1">
@@ -923,7 +931,7 @@
       <c r="A39" s="2">
         <v>6.0</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="6">
         <v>0.5</v>
       </c>
       <c r="C39" s="1">
@@ -938,7 +946,7 @@
       <c r="A40" s="2">
         <v>4.7</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="6">
         <v>1.5</v>
       </c>
       <c r="C40" s="1">
@@ -953,7 +961,7 @@
       <c r="A41" s="2">
         <v>4.8</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="6">
         <v>0.9</v>
       </c>
       <c r="C41" s="1">
@@ -968,7 +976,7 @@
       <c r="A42" s="2">
         <v>5.2</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="6">
         <v>-4.2</v>
       </c>
       <c r="C42" s="1">
@@ -983,7 +991,7 @@
       <c r="A43" s="2">
         <v>6.0</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="6">
         <v>-4.5</v>
       </c>
       <c r="C43" s="1">
@@ -998,7 +1006,7 @@
       <c r="A44" s="2">
         <v>6.7</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="6">
         <v>-1.6</v>
       </c>
       <c r="C44" s="1">
@@ -1013,7 +1021,7 @@
       <c r="A45" s="2">
         <v>5.5</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="6">
         <v>-0.2</v>
       </c>
       <c r="C45" s="1">
@@ -1028,7 +1036,7 @@
       <c r="A46" s="2">
         <v>6.2</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="6">
         <v>-2.8</v>
       </c>
       <c r="C46" s="1">
@@ -1043,7 +1051,7 @@
       <c r="A47" s="2">
         <v>8.0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="6">
         <v>0.2</v>
       </c>
       <c r="C47" s="1">
@@ -1058,7 +1066,7 @@
       <c r="A48" s="2">
         <v>5.0</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="6">
         <v>-1.7</v>
       </c>
       <c r="C48" s="1">
@@ -1073,7 +1081,7 @@
       <c r="A49" s="2">
         <v>4.0</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="6">
         <v>-1.9</v>
       </c>
       <c r="C49" s="1">
@@ -1088,7 +1096,7 @@
       <c r="A50" s="2">
         <v>5.0</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="6">
         <v>-2.7</v>
       </c>
       <c r="C50" s="1">
@@ -1103,7 +1111,7 @@
       <c r="A51" s="2">
         <v>5.1</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="6">
         <v>-3.7</v>
       </c>
       <c r="C51" s="1">
@@ -1118,7 +1126,7 @@
       <c r="A52" s="2">
         <v>3.2</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="6">
         <v>-3.8</v>
       </c>
       <c r="C52" s="1">
@@ -1133,7 +1141,7 @@
       <c r="A53" s="2">
         <v>1.8</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="6">
         <v>-0.8</v>
       </c>
       <c r="C53" s="1">
@@ -1148,7 +1156,7 @@
       <c r="A54" s="2">
         <v>4.0</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="6">
         <v>-4.7</v>
       </c>
       <c r="C54" s="1">
@@ -1163,7 +1171,7 @@
       <c r="A55" s="2">
         <v>3.0</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="6">
         <v>-2.1</v>
       </c>
       <c r="C55" s="1">
@@ -1178,7 +1186,7 @@
       <c r="A56" s="2">
         <v>5.0</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="6">
         <v>0.7</v>
       </c>
       <c r="C56" s="1">
@@ -1193,7 +1201,7 @@
       <c r="A57" s="2">
         <v>3.0</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="1">
@@ -1208,7 +1216,7 @@
       <c r="A58" s="2">
         <v>6.5</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="6">
         <v>0.4</v>
       </c>
       <c r="C58" s="1">
@@ -1223,7 +1231,7 @@
       <c r="A59" s="2">
         <v>8.0</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="1">
@@ -1238,7 +1246,7 @@
       <c r="A60" s="2">
         <v>6.0</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="6">
         <v>-2.8</v>
       </c>
       <c r="C60" s="1">
@@ -7640,10 +7648,10 @@
       </c>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="5">
+      <c r="A487" s="7">
         <v>17.5</v>
       </c>
-      <c r="B487" s="5">
+      <c r="B487" s="7">
         <v>6.5</v>
       </c>
       <c r="C487" s="1">
@@ -7655,10 +7663,10 @@
       </c>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="5">
+      <c r="A488" s="7">
         <v>16.1</v>
       </c>
-      <c r="B488" s="5">
+      <c r="B488" s="7">
         <v>7.0</v>
       </c>
       <c r="C488" s="1">
@@ -7670,10 +7678,10 @@
       </c>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="5">
+      <c r="A489" s="7">
         <v>14.5</v>
       </c>
-      <c r="B489" s="5">
+      <c r="B489" s="7">
         <v>4.5</v>
       </c>
       <c r="C489" s="1">
@@ -7685,10 +7693,10 @@
       </c>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="5">
+      <c r="A490" s="7">
         <v>16.0</v>
       </c>
-      <c r="B490" s="5">
+      <c r="B490" s="7">
         <v>6.0</v>
       </c>
       <c r="C490" s="1">
@@ -7700,10 +7708,10 @@
       </c>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="5">
+      <c r="A491" s="7">
         <v>16.0</v>
       </c>
-      <c r="B491" s="5">
+      <c r="B491" s="7">
         <v>10.5</v>
       </c>
       <c r="C491" s="1">
@@ -7715,10 +7723,10 @@
       </c>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="5">
+      <c r="A492" s="7">
         <v>17.7</v>
       </c>
-      <c r="B492" s="5">
+      <c r="B492" s="7">
         <v>10.5</v>
       </c>
       <c r="C492" s="1">
@@ -7730,10 +7738,10 @@
       </c>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="5">
+      <c r="A493" s="7">
         <v>18.5</v>
       </c>
-      <c r="B493" s="5">
+      <c r="B493" s="7">
         <v>10.4</v>
       </c>
       <c r="C493" s="1">
@@ -7745,10 +7753,10 @@
       </c>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="5">
+      <c r="A494" s="7">
         <v>16.5</v>
       </c>
-      <c r="B494" s="5">
+      <c r="B494" s="7">
         <v>9.0</v>
       </c>
       <c r="C494" s="1">
@@ -7760,10 +7768,10 @@
       </c>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="5">
+      <c r="A495" s="7">
         <v>17.0</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495" s="7">
         <v>10.0</v>
       </c>
       <c r="C495" s="1">
@@ -7775,10 +7783,10 @@
       </c>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="5">
+      <c r="A496" s="7">
         <v>16.0</v>
       </c>
-      <c r="B496" s="5">
+      <c r="B496" s="7">
         <v>11.0</v>
       </c>
       <c r="C496" s="1">
@@ -7790,10 +7798,10 @@
       </c>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="5">
+      <c r="A497" s="7">
         <v>16.0</v>
       </c>
-      <c r="B497" s="5">
+      <c r="B497" s="7">
         <v>7.0</v>
       </c>
       <c r="C497" s="1">
@@ -7805,10 +7813,10 @@
       </c>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="5">
+      <c r="A498" s="7">
         <v>16.0</v>
       </c>
-      <c r="B498" s="5">
+      <c r="B498" s="7">
         <v>9.0</v>
       </c>
       <c r="C498" s="1">
@@ -7820,10 +7828,10 @@
       </c>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="5">
+      <c r="A499" s="7">
         <v>13.5</v>
       </c>
-      <c r="B499" s="5">
+      <c r="B499" s="7">
         <v>8.0</v>
       </c>
       <c r="C499" s="1">
@@ -7835,10 +7843,10 @@
       </c>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="5">
+      <c r="A500" s="7">
         <v>13.3</v>
       </c>
-      <c r="B500" s="5">
+      <c r="B500" s="7">
         <v>5.1</v>
       </c>
       <c r="C500" s="1">
@@ -7850,10 +7858,10 @@
       </c>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="5">
+      <c r="A501" s="7">
         <v>14.5</v>
       </c>
-      <c r="B501" s="5">
+      <c r="B501" s="7">
         <v>4.0</v>
       </c>
       <c r="C501" s="1">
@@ -7865,10 +7873,10 @@
       </c>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="5">
+      <c r="A502" s="7">
         <v>15.0</v>
       </c>
-      <c r="B502" s="5">
+      <c r="B502" s="7">
         <v>10.2</v>
       </c>
       <c r="C502" s="1">
@@ -7880,10 +7888,10 @@
       </c>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="5">
+      <c r="A503" s="7">
         <v>16.5</v>
       </c>
-      <c r="B503" s="5">
+      <c r="B503" s="7">
         <v>11.5</v>
       </c>
       <c r="C503" s="1">
@@ -7895,10 +7903,10 @@
       </c>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="5">
+      <c r="A504" s="7">
         <v>15.0</v>
       </c>
-      <c r="B504" s="5">
+      <c r="B504" s="7">
         <v>8.5</v>
       </c>
       <c r="C504" s="1">
@@ -7910,10 +7918,10 @@
       </c>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="5">
+      <c r="A505" s="7">
         <v>14.5</v>
       </c>
-      <c r="B505" s="5">
+      <c r="B505" s="7">
         <v>3.0</v>
       </c>
       <c r="C505" s="1">
@@ -7925,10 +7933,10 @@
       </c>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="5">
+      <c r="A506" s="7">
         <v>15.1</v>
       </c>
-      <c r="B506" s="5">
+      <c r="B506" s="7">
         <v>8.0</v>
       </c>
       <c r="C506" s="1">
@@ -7940,10 +7948,10 @@
       </c>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="5">
+      <c r="A507" s="7">
         <v>14.4</v>
       </c>
-      <c r="B507" s="5">
+      <c r="B507" s="7">
         <v>4.4</v>
       </c>
       <c r="C507" s="1">
@@ -7955,10 +7963,10 @@
       </c>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="5">
+      <c r="A508" s="7">
         <v>15.5</v>
       </c>
-      <c r="B508" s="5">
+      <c r="B508" s="7">
         <v>5.0</v>
       </c>
       <c r="C508" s="1">
@@ -7970,10 +7978,10 @@
       </c>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="5">
+      <c r="A509" s="7">
         <v>14.5</v>
       </c>
-      <c r="B509" s="5">
+      <c r="B509" s="7">
         <v>8.8</v>
       </c>
       <c r="C509" s="1">
@@ -7985,10 +7993,10 @@
       </c>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="5">
+      <c r="A510" s="7">
         <v>15.5</v>
       </c>
-      <c r="B510" s="5">
+      <c r="B510" s="7">
         <v>5.0</v>
       </c>
       <c r="C510" s="1">
@@ -8000,10 +8008,10 @@
       </c>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="5">
+      <c r="A511" s="7">
         <v>14.0</v>
       </c>
-      <c r="B511" s="5">
+      <c r="B511" s="7">
         <v>9.0</v>
       </c>
       <c r="C511" s="1">
@@ -8015,10 +8023,10 @@
       </c>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="5">
+      <c r="A512" s="7">
         <v>14.5</v>
       </c>
-      <c r="B512" s="5">
+      <c r="B512" s="7">
         <v>9.7</v>
       </c>
       <c r="C512" s="1">
@@ -8030,10 +8038,10 @@
       </c>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="5">
+      <c r="A513" s="7">
         <v>13.7</v>
       </c>
-      <c r="B513" s="5">
+      <c r="B513" s="7">
         <v>3.5</v>
       </c>
       <c r="C513" s="1">
@@ -8045,10 +8053,10 @@
       </c>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="5">
+      <c r="A514" s="7">
         <v>15.0</v>
       </c>
-      <c r="B514" s="5">
+      <c r="B514" s="7">
         <v>8.9</v>
       </c>
       <c r="C514" s="1">
@@ -8060,10 +8068,10 @@
       </c>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="5">
+      <c r="A515" s="7">
         <v>17.0</v>
       </c>
-      <c r="B515" s="5">
+      <c r="B515" s="7">
         <v>10.0</v>
       </c>
       <c r="C515" s="1">
@@ -8075,10 +8083,10 @@
       </c>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="5">
+      <c r="A516" s="7">
         <v>14.5</v>
       </c>
-      <c r="B516" s="5">
+      <c r="B516" s="7">
         <v>8.0</v>
       </c>
       <c r="C516" s="1">
@@ -8090,10 +8098,10 @@
       </c>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="5">
+      <c r="A517" s="7">
         <v>17.0</v>
       </c>
-      <c r="B517" s="5">
+      <c r="B517" s="7">
         <v>2.4</v>
       </c>
       <c r="C517" s="1">
@@ -8105,10 +8113,10 @@
       </c>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="5">
+      <c r="A518" s="7">
         <v>19.5</v>
       </c>
-      <c r="B518" s="5">
+      <c r="B518" s="7">
         <v>10.7</v>
       </c>
       <c r="C518" s="1">
@@ -8120,10 +8128,10 @@
       </c>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="5">
+      <c r="A519" s="7">
         <v>22.0</v>
       </c>
-      <c r="B519" s="5">
+      <c r="B519" s="7">
         <v>11.5</v>
       </c>
       <c r="C519" s="1">
@@ -8135,10 +8143,10 @@
       </c>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="5">
+      <c r="A520" s="7">
         <v>25.5</v>
       </c>
-      <c r="B520" s="5">
+      <c r="B520" s="7">
         <v>8.5</v>
       </c>
       <c r="C520" s="1">
@@ -8150,10 +8158,10 @@
       </c>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="5">
+      <c r="A521" s="7">
         <v>19.1</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B521" s="7">
         <v>10.8</v>
       </c>
       <c r="C521" s="1">
@@ -8165,10 +8173,10 @@
       </c>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="5">
+      <c r="A522" s="7">
         <v>14.2</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B522" s="7">
         <v>10.6</v>
       </c>
       <c r="C522" s="1">
@@ -8180,10 +8188,10 @@
       </c>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="5">
+      <c r="A523" s="7">
         <v>14.1</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B523" s="7">
         <v>2.6</v>
       </c>
       <c r="C523" s="1">
@@ -8195,10 +8203,10 @@
       </c>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="5">
+      <c r="A524" s="7">
         <v>14.5</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B524" s="7">
         <v>8.0</v>
       </c>
       <c r="C524" s="1">
@@ -8210,10 +8218,10 @@
       </c>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="5">
+      <c r="A525" s="7">
         <v>15.0</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B525" s="7">
         <v>8.0</v>
       </c>
       <c r="C525" s="1">
@@ -8225,10 +8233,10 @@
       </c>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="5">
+      <c r="A526" s="7">
         <v>14.0</v>
       </c>
-      <c r="B526" s="5">
+      <c r="B526" s="7">
         <v>4.0</v>
       </c>
       <c r="C526" s="1">
@@ -8240,10 +8248,10 @@
       </c>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="5">
+      <c r="A527" s="7">
         <v>15.3</v>
       </c>
-      <c r="B527" s="5">
+      <c r="B527" s="7">
         <v>2.5</v>
       </c>
       <c r="C527" s="1">
@@ -8255,10 +8263,10 @@
       </c>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="5">
+      <c r="A528" s="7">
         <v>16.5</v>
       </c>
-      <c r="B528" s="5">
+      <c r="B528" s="7">
         <v>2.7</v>
       </c>
       <c r="C528" s="1">
@@ -8270,10 +8278,10 @@
       </c>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="5">
+      <c r="A529" s="7">
         <v>13.3</v>
       </c>
-      <c r="B529" s="5">
+      <c r="B529" s="7">
         <v>3.5</v>
       </c>
       <c r="C529" s="1">
@@ -8285,10 +8293,10 @@
       </c>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="5">
+      <c r="A530" s="7">
         <v>18.5</v>
       </c>
-      <c r="B530" s="5">
+      <c r="B530" s="7">
         <v>9.0</v>
       </c>
       <c r="C530" s="1">
@@ -8300,10 +8308,10 @@
       </c>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="5">
+      <c r="A531" s="7">
         <v>20.5</v>
       </c>
-      <c r="B531" s="5">
+      <c r="B531" s="7">
         <v>5.2</v>
       </c>
       <c r="C531" s="1">
@@ -8315,10 +8323,10 @@
       </c>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="5">
+      <c r="A532" s="7">
         <v>19.8</v>
       </c>
-      <c r="B532" s="5">
+      <c r="B532" s="7">
         <v>12.5</v>
       </c>
       <c r="C532" s="1">
@@ -8330,10 +8338,10 @@
       </c>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="5">
+      <c r="A533" s="7">
         <v>17.0</v>
       </c>
-      <c r="B533" s="5">
+      <c r="B533" s="7">
         <v>7.0</v>
       </c>
       <c r="C533" s="1">
@@ -8345,10 +8353,10 @@
       </c>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="5">
+      <c r="A534" s="7">
         <v>16.5</v>
       </c>
-      <c r="B534" s="5">
+      <c r="B534" s="7">
         <v>8.5</v>
       </c>
       <c r="C534" s="1">
@@ -8360,10 +8368,10 @@
       </c>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="5">
+      <c r="A535" s="7">
         <v>17.0</v>
       </c>
-      <c r="B535" s="5">
+      <c r="B535" s="7">
         <v>8.3</v>
       </c>
       <c r="C535" s="1">
@@ -8375,10 +8383,10 @@
       </c>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="5">
+      <c r="A536" s="7">
         <v>16.5</v>
       </c>
-      <c r="B536" s="5">
+      <c r="B536" s="7">
         <v>6.2</v>
       </c>
       <c r="C536" s="1">
@@ -8390,10 +8398,10 @@
       </c>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="5">
+      <c r="A537" s="7">
         <v>18.0</v>
       </c>
-      <c r="B537" s="5">
+      <c r="B537" s="7">
         <v>6.7</v>
       </c>
       <c r="C537" s="1">
@@ -8405,10 +8413,10 @@
       </c>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="5">
+      <c r="A538" s="7">
         <v>17.0</v>
       </c>
-      <c r="B538" s="5">
+      <c r="B538" s="7">
         <v>10.5</v>
       </c>
       <c r="C538" s="1">
@@ -8420,10 +8428,10 @@
       </c>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="5">
+      <c r="A539" s="7">
         <v>18.0</v>
       </c>
-      <c r="B539" s="5">
+      <c r="B539" s="7">
         <v>10.0</v>
       </c>
       <c r="C539" s="1">
@@ -8435,10 +8443,10 @@
       </c>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="5">
+      <c r="A540" s="7">
         <v>17.5</v>
       </c>
-      <c r="B540" s="5">
+      <c r="B540" s="7">
         <v>9.5</v>
       </c>
       <c r="C540" s="1">
@@ -8450,10 +8458,10 @@
       </c>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="5">
+      <c r="A541" s="7">
         <v>16.6</v>
       </c>
-      <c r="B541" s="5">
+      <c r="B541" s="7">
         <v>6.0</v>
       </c>
       <c r="C541" s="1">
@@ -8465,10 +8473,10 @@
       </c>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="5">
+      <c r="A542" s="7">
         <v>20.0</v>
       </c>
-      <c r="B542" s="5">
+      <c r="B542" s="7">
         <v>10.6</v>
       </c>
       <c r="C542" s="1">
@@ -8480,10 +8488,10 @@
       </c>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="5">
+      <c r="A543" s="7">
         <v>23.5</v>
       </c>
-      <c r="B543" s="5">
+      <c r="B543" s="7">
         <v>14.2</v>
       </c>
       <c r="C543" s="1">
@@ -8495,10 +8503,10 @@
       </c>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="5">
+      <c r="A544" s="7">
         <v>18.0</v>
       </c>
-      <c r="B544" s="5">
+      <c r="B544" s="7">
         <v>11.0</v>
       </c>
       <c r="C544" s="1">
@@ -8510,10 +8518,10 @@
       </c>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="5">
+      <c r="A545" s="7">
         <v>17.5</v>
       </c>
-      <c r="B545" s="5">
+      <c r="B545" s="7">
         <v>7.0</v>
       </c>
       <c r="C545" s="1">
@@ -8525,10 +8533,10 @@
       </c>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="5">
+      <c r="A546" s="7">
         <v>17.0</v>
       </c>
-      <c r="B546" s="5">
+      <c r="B546" s="7">
         <v>6.0</v>
       </c>
       <c r="C546" s="1">
@@ -8540,10 +8548,10 @@
       </c>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="5">
+      <c r="A547" s="7">
         <v>16.5</v>
       </c>
-      <c r="B547" s="5">
+      <c r="B547" s="7">
         <v>8.0</v>
       </c>
       <c r="C547" s="1">
@@ -8555,10 +8563,10 @@
       </c>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="5">
+      <c r="A548" s="7">
         <v>19.2</v>
       </c>
-      <c r="B548" s="5">
+      <c r="B548" s="7">
         <v>9.5</v>
       </c>
       <c r="C548" s="1">
@@ -8570,10 +8578,10 @@
       </c>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="5">
+      <c r="A549" s="7">
         <v>20.6</v>
       </c>
-      <c r="B549" s="5">
+      <c r="B549" s="7">
         <v>11.0</v>
       </c>
       <c r="C549" s="1">
@@ -8585,10 +8593,10 @@
       </c>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="5">
+      <c r="A550" s="7">
         <v>22.5</v>
       </c>
-      <c r="B550" s="5">
+      <c r="B550" s="7">
         <v>8.5</v>
       </c>
       <c r="C550" s="1">
@@ -8600,10 +8608,10 @@
       </c>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="5">
+      <c r="A551" s="7">
         <v>22.8</v>
       </c>
-      <c r="B551" s="5">
+      <c r="B551" s="7">
         <v>10.5</v>
       </c>
       <c r="C551" s="1">
@@ -8615,10 +8623,10 @@
       </c>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="5">
+      <c r="A552" s="7">
         <v>20.5</v>
       </c>
-      <c r="B552" s="5">
+      <c r="B552" s="7">
         <v>13.6</v>
       </c>
       <c r="C552" s="1">
@@ -8630,10 +8638,10 @@
       </c>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="5">
+      <c r="A553" s="7">
         <v>17.2</v>
       </c>
-      <c r="B553" s="5">
+      <c r="B553" s="7">
         <v>9.8</v>
       </c>
       <c r="C553" s="1">
@@ -8645,10 +8653,10 @@
       </c>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="5">
+      <c r="A554" s="7">
         <v>18.0</v>
       </c>
-      <c r="B554" s="5">
+      <c r="B554" s="7">
         <v>10.8</v>
       </c>
       <c r="C554" s="1">
@@ -8660,10 +8668,10 @@
       </c>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="5">
+      <c r="A555" s="7">
         <v>17.4</v>
       </c>
-      <c r="B555" s="5">
+      <c r="B555" s="7">
         <v>12.0</v>
       </c>
       <c r="C555" s="1">
@@ -8675,10 +8683,10 @@
       </c>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="5">
+      <c r="A556" s="7">
         <v>20.2</v>
       </c>
-      <c r="B556" s="5">
+      <c r="B556" s="7">
         <v>9.8</v>
       </c>
       <c r="C556" s="1">
@@ -8690,10 +8698,10 @@
       </c>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="5">
+      <c r="A557" s="7">
         <v>19.4</v>
       </c>
-      <c r="B557" s="5">
+      <c r="B557" s="7">
         <v>9.4</v>
       </c>
       <c r="C557" s="1">
@@ -8705,10 +8713,10 @@
       </c>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="5">
+      <c r="A558" s="7">
         <v>20.0</v>
       </c>
-      <c r="B558" s="5">
+      <c r="B558" s="7">
         <v>9.8</v>
       </c>
       <c r="C558" s="1">
@@ -8720,10 +8728,10 @@
       </c>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="5">
+      <c r="A559" s="7">
         <v>20.5</v>
       </c>
-      <c r="B559" s="5">
+      <c r="B559" s="7">
         <v>11.1</v>
       </c>
       <c r="C559" s="1">
@@ -8735,10 +8743,10 @@
       </c>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="5">
+      <c r="A560" s="7">
         <v>21.5</v>
       </c>
-      <c r="B560" s="5">
+      <c r="B560" s="7">
         <v>9.0</v>
       </c>
       <c r="C560" s="1">
@@ -8750,10 +8758,10 @@
       </c>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="5">
+      <c r="A561" s="7">
         <v>22.2</v>
       </c>
-      <c r="B561" s="5">
+      <c r="B561" s="7">
         <v>10.2</v>
       </c>
       <c r="C561" s="1">
@@ -8765,10 +8773,10 @@
       </c>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="5">
+      <c r="A562" s="7">
         <v>17.5</v>
       </c>
-      <c r="B562" s="5">
+      <c r="B562" s="7">
         <v>13.2</v>
       </c>
       <c r="C562" s="1">
@@ -8780,10 +8788,10 @@
       </c>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="5">
+      <c r="A563" s="7">
         <v>17.0</v>
       </c>
-      <c r="B563" s="5">
+      <c r="B563" s="7">
         <v>12.5</v>
       </c>
       <c r="C563" s="1">
@@ -8795,10 +8803,10 @@
       </c>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="5">
+      <c r="A564" s="7">
         <v>14.5</v>
       </c>
-      <c r="B564" s="5">
+      <c r="B564" s="7">
         <v>11.6</v>
       </c>
       <c r="C564" s="1">
@@ -8810,10 +8818,10 @@
       </c>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="5">
+      <c r="A565" s="7">
         <v>16.5</v>
       </c>
-      <c r="B565" s="5">
+      <c r="B565" s="7">
         <v>11.5</v>
       </c>
       <c r="C565" s="1">
@@ -8825,10 +8833,10 @@
       </c>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="5">
+      <c r="A566" s="7">
         <v>16.5</v>
       </c>
-      <c r="B566" s="5">
+      <c r="B566" s="7">
         <v>12.0</v>
       </c>
       <c r="C566" s="1">
@@ -8840,10 +8848,10 @@
       </c>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="5">
+      <c r="A567" s="7">
         <v>17.0</v>
       </c>
-      <c r="B567" s="5">
+      <c r="B567" s="7">
         <v>9.7</v>
       </c>
       <c r="C567" s="1">
@@ -8855,10 +8863,10 @@
       </c>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="5">
+      <c r="A568" s="7">
         <v>15.0</v>
       </c>
-      <c r="B568" s="5">
+      <c r="B568" s="7">
         <v>11.0</v>
       </c>
       <c r="C568" s="1">
@@ -8870,10 +8878,10 @@
       </c>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="5">
+      <c r="A569" s="7">
         <v>18.0</v>
       </c>
-      <c r="B569" s="5">
+      <c r="B569" s="7">
         <v>6.7</v>
       </c>
       <c r="C569" s="1">
@@ -8885,10 +8893,10 @@
       </c>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="5">
+      <c r="A570" s="7">
         <v>21.0</v>
       </c>
-      <c r="B570" s="5">
+      <c r="B570" s="7">
         <v>6.5</v>
       </c>
       <c r="C570" s="1">
@@ -8900,10 +8908,10 @@
       </c>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="5">
+      <c r="A571" s="7">
         <v>20.7</v>
       </c>
-      <c r="B571" s="5">
+      <c r="B571" s="7">
         <v>12.3</v>
       </c>
       <c r="C571" s="1">
@@ -8915,10 +8923,10 @@
       </c>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="5">
+      <c r="A572" s="7">
         <v>21.0</v>
       </c>
-      <c r="B572" s="5">
+      <c r="B572" s="7">
         <v>12.6</v>
       </c>
       <c r="C572" s="1">
@@ -8930,10 +8938,10 @@
       </c>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="5">
+      <c r="A573" s="7">
         <v>21.5</v>
       </c>
-      <c r="B573" s="5">
+      <c r="B573" s="7">
         <v>14.0</v>
       </c>
       <c r="C573" s="1">
@@ -8945,10 +8953,10 @@
       </c>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="5">
+      <c r="A574" s="7">
         <v>23.7</v>
       </c>
-      <c r="B574" s="5">
+      <c r="B574" s="7">
         <v>13.0</v>
       </c>
       <c r="C574" s="1">
@@ -8960,10 +8968,10 @@
       </c>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="5">
+      <c r="A575" s="7">
         <v>17.7</v>
       </c>
-      <c r="B575" s="5">
+      <c r="B575" s="7">
         <v>13.5</v>
       </c>
       <c r="C575" s="1">
@@ -8975,10 +8983,10 @@
       </c>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="5">
+      <c r="A576" s="7">
         <v>17.2</v>
       </c>
-      <c r="B576" s="5">
+      <c r="B576" s="7">
         <v>11.8</v>
       </c>
       <c r="C576" s="1">
@@ -8990,10 +8998,10 @@
       </c>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="5">
+      <c r="A577" s="7">
         <v>20.4</v>
       </c>
-      <c r="B577" s="5">
+      <c r="B577" s="7">
         <v>11.1</v>
       </c>
       <c r="C577" s="1">
@@ -9005,10 +9013,10 @@
       </c>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="5">
+      <c r="A578" s="7">
         <v>19.0</v>
       </c>
-      <c r="B578" s="5">
+      <c r="B578" s="7">
         <v>13.5</v>
       </c>
       <c r="C578" s="1">
@@ -9020,10 +9028,10 @@
       </c>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="5">
+      <c r="A579" s="7">
         <v>21.5</v>
       </c>
-      <c r="B579" s="6">
+      <c r="B579" s="8">
         <v>11.8</v>
       </c>
       <c r="C579" s="1">
@@ -9035,10 +9043,10 @@
       </c>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="5">
+      <c r="A580" s="7">
         <v>18.6</v>
       </c>
-      <c r="B580" s="5">
+      <c r="B580" s="7">
         <v>12.0</v>
       </c>
       <c r="C580" s="1">
@@ -9050,10 +9058,10 @@
       </c>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="5">
+      <c r="A581" s="7">
         <v>21.2</v>
       </c>
-      <c r="B581" s="5">
+      <c r="B581" s="7">
         <v>10.5</v>
       </c>
       <c r="C581" s="1">
@@ -9065,10 +9073,10 @@
       </c>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="5">
+      <c r="A582" s="7">
         <v>22.5</v>
       </c>
-      <c r="B582" s="5">
+      <c r="B582" s="7">
         <v>15.0</v>
       </c>
       <c r="C582" s="1">
@@ -9083,7 +9091,7 @@
       <c r="A583" s="2">
         <v>18.0</v>
       </c>
-      <c r="B583" s="5">
+      <c r="B583" s="7">
         <v>7.4</v>
       </c>
       <c r="C583" s="1">
@@ -9110,7 +9118,7 @@
       </c>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="5">
+      <c r="A585" s="7">
         <v>18.7</v>
       </c>
       <c r="B585" s="2">
@@ -9125,10 +9133,10 @@
       </c>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="5">
+      <c r="A586" s="7">
         <v>19.6</v>
       </c>
-      <c r="B586" s="5">
+      <c r="B586" s="7">
         <v>9.0</v>
       </c>
       <c r="C586" s="1">
@@ -9140,10 +9148,10 @@
       </c>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="5">
+      <c r="A587" s="7">
         <v>18.4</v>
       </c>
-      <c r="B587" s="5">
+      <c r="B587" s="7">
         <v>8.8</v>
       </c>
       <c r="C587" s="1">
@@ -9155,10 +9163,10 @@
       </c>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="5">
+      <c r="A588" s="7">
         <v>18.4</v>
       </c>
-      <c r="B588" s="5">
+      <c r="B588" s="7">
         <v>12.8</v>
       </c>
       <c r="C588" s="1">
@@ -9170,10 +9178,10 @@
       </c>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="5">
+      <c r="A589" s="7">
         <v>21.0</v>
       </c>
-      <c r="B589" s="5">
+      <c r="B589" s="7">
         <v>15.5</v>
       </c>
       <c r="C589" s="1">
@@ -9188,7 +9196,7 @@
       <c r="A590" s="2">
         <v>18.8</v>
       </c>
-      <c r="B590" s="5">
+      <c r="B590" s="7">
         <v>14.5</v>
       </c>
       <c r="C590" s="1">
@@ -9215,7 +9223,7 @@
       </c>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="5">
+      <c r="A592" s="7">
         <v>19.3</v>
       </c>
       <c r="B592" s="2">
@@ -9230,10 +9238,10 @@
       </c>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="5">
+      <c r="A593" s="7">
         <v>19.2</v>
       </c>
-      <c r="B593" s="5">
+      <c r="B593" s="7">
         <v>9.4</v>
       </c>
       <c r="C593" s="1">
@@ -9245,10 +9253,10 @@
       </c>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="5">
+      <c r="A594" s="7">
         <v>18.9</v>
       </c>
-      <c r="B594" s="5">
+      <c r="B594" s="7">
         <v>13.3</v>
       </c>
       <c r="C594" s="1">
@@ -9260,10 +9268,10 @@
       </c>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="5">
+      <c r="A595" s="7">
         <v>18.1</v>
       </c>
-      <c r="B595" s="5">
+      <c r="B595" s="7">
         <v>6.2</v>
       </c>
       <c r="C595" s="1">
@@ -9275,10 +9283,10 @@
       </c>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="5">
+      <c r="A596" s="7">
         <v>17.7</v>
       </c>
-      <c r="B596" s="5">
+      <c r="B596" s="7">
         <v>9.9</v>
       </c>
       <c r="C596" s="1">
@@ -9293,7 +9301,7 @@
       <c r="A597" s="2">
         <v>15.1</v>
       </c>
-      <c r="B597" s="5">
+      <c r="B597" s="7">
         <v>8.5</v>
       </c>
       <c r="C597" s="1">
@@ -9320,7 +9328,7 @@
       </c>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="5">
+      <c r="A599" s="7">
         <v>19.8</v>
       </c>
       <c r="B599" s="2">
@@ -9335,10 +9343,10 @@
       </c>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="5">
+      <c r="A600" s="7">
         <v>18.5</v>
       </c>
-      <c r="B600" s="5">
+      <c r="B600" s="7">
         <v>8.6</v>
       </c>
       <c r="C600" s="1">
@@ -9350,10 +9358,10 @@
       </c>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="5">
+      <c r="A601" s="7">
         <v>19.9</v>
       </c>
-      <c r="B601" s="5">
+      <c r="B601" s="7">
         <v>7.0</v>
       </c>
       <c r="C601" s="1">
@@ -9365,10 +9373,10 @@
       </c>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="5">
+      <c r="A602" s="7">
         <v>17.6</v>
       </c>
-      <c r="B602" s="5">
+      <c r="B602" s="7">
         <v>9.8</v>
       </c>
       <c r="C602" s="1">
@@ -9380,10 +9388,10 @@
       </c>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="5">
+      <c r="A603" s="7">
         <v>18.6</v>
       </c>
-      <c r="B603" s="5">
+      <c r="B603" s="7">
         <v>7.0</v>
       </c>
       <c r="C603" s="1">
@@ -9398,7 +9406,7 @@
       <c r="A604" s="2">
         <v>19.0</v>
       </c>
-      <c r="B604" s="5">
+      <c r="B604" s="7">
         <v>5.5</v>
       </c>
       <c r="C604" s="1">
@@ -9425,7 +9433,7 @@
       </c>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="5">
+      <c r="A606" s="7">
         <v>19.0</v>
       </c>
       <c r="B606" s="2">
@@ -9440,10 +9448,10 @@
       </c>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="5">
+      <c r="A607" s="7">
         <v>16.0</v>
       </c>
-      <c r="B607" s="5">
+      <c r="B607" s="7">
         <v>4.5</v>
       </c>
       <c r="C607" s="1">
@@ -9455,10 +9463,10 @@
       </c>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="5">
+      <c r="A608" s="7">
         <v>15.5</v>
       </c>
-      <c r="B608" s="5">
+      <c r="B608" s="7">
         <v>10.0</v>
       </c>
       <c r="C608" s="1">
@@ -9470,10 +9478,10 @@
       </c>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="5">
+      <c r="A609" s="7">
         <v>17.0</v>
       </c>
-      <c r="B609" s="5">
+      <c r="B609" s="7">
         <v>11.0</v>
       </c>
       <c r="C609" s="1">
@@ -9485,10 +9493,10 @@
       </c>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="5">
+      <c r="A610" s="7">
         <v>21.0</v>
       </c>
-      <c r="B610" s="5">
+      <c r="B610" s="7">
         <v>6.9</v>
       </c>
       <c r="C610" s="1">
@@ -9503,7 +9511,7 @@
       <c r="A611" s="2">
         <v>18.6</v>
       </c>
-      <c r="B611" s="5">
+      <c r="B611" s="7">
         <v>13.9</v>
       </c>
       <c r="C611" s="1">
@@ -9530,7 +9538,7 @@
       </c>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="5">
+      <c r="A613" s="7">
         <v>18.5</v>
       </c>
       <c r="B613" s="2">
@@ -9545,10 +9553,10 @@
       </c>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="5">
+      <c r="A614" s="7">
         <v>16.0</v>
       </c>
-      <c r="B614" s="5">
+      <c r="B614" s="7">
         <v>7.4</v>
       </c>
       <c r="C614" s="1">
@@ -9560,10 +9568,10 @@
       </c>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="5">
+      <c r="A615" s="7">
         <v>16.5</v>
       </c>
-      <c r="B615" s="5">
+      <c r="B615" s="7">
         <v>11.7</v>
       </c>
       <c r="C615" s="1">
@@ -9575,10 +9583,10 @@
       </c>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="5">
+      <c r="A616" s="7">
         <v>15.0</v>
       </c>
-      <c r="B616" s="5">
+      <c r="B616" s="7">
         <v>11.6</v>
       </c>
       <c r="C616" s="1">
@@ -9590,10 +9598,10 @@
       </c>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="5">
+      <c r="A617" s="7">
         <v>17.7</v>
       </c>
-      <c r="B617" s="5">
+      <c r="B617" s="7">
         <v>11.0</v>
       </c>
       <c r="C617" s="1">
@@ -9608,7 +9616,7 @@
       <c r="A618" s="2">
         <v>21.8</v>
       </c>
-      <c r="B618" s="5">
+      <c r="B618" s="7">
         <v>14.5</v>
       </c>
       <c r="C618" s="1">
@@ -9635,7 +9643,7 @@
       </c>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="5">
+      <c r="A620" s="7">
         <v>17.1</v>
       </c>
       <c r="B620" s="2">
@@ -9650,10 +9658,10 @@
       </c>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="5">
+      <c r="A621" s="7">
         <v>16.6</v>
       </c>
-      <c r="B621" s="5">
+      <c r="B621" s="7">
         <v>11.0</v>
       </c>
       <c r="C621" s="1">
@@ -9665,10 +9673,10 @@
       </c>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="5">
+      <c r="A622" s="7">
         <v>15.6</v>
       </c>
-      <c r="B622" s="5">
+      <c r="B622" s="7">
         <v>9.8</v>
       </c>
       <c r="C622" s="1">
@@ -9680,10 +9688,10 @@
       </c>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="5">
+      <c r="A623" s="7">
         <v>16.5</v>
       </c>
-      <c r="B623" s="5">
+      <c r="B623" s="7">
         <v>7.1</v>
       </c>
       <c r="C623" s="1">
@@ -9695,10 +9703,10 @@
       </c>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="5">
+      <c r="A624" s="7">
         <v>17.5</v>
       </c>
-      <c r="B624" s="5">
+      <c r="B624" s="7">
         <v>10.2</v>
       </c>
       <c r="C624" s="1">
@@ -9713,7 +9721,7 @@
       <c r="A625" s="2">
         <v>17.0</v>
       </c>
-      <c r="B625" s="5">
+      <c r="B625" s="7">
         <v>11.1</v>
       </c>
       <c r="C625" s="1">
@@ -9740,7 +9748,7 @@
       </c>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="5">
+      <c r="A627" s="7">
         <v>18.0</v>
       </c>
       <c r="B627" s="2">
@@ -9755,10 +9763,10 @@
       </c>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="5">
+      <c r="A628" s="7">
         <v>17.5</v>
       </c>
-      <c r="B628" s="5">
+      <c r="B628" s="7">
         <v>10.5</v>
       </c>
       <c r="C628" s="1">
@@ -9770,10 +9778,10 @@
       </c>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="5">
+      <c r="A629" s="7">
         <v>14.5</v>
       </c>
-      <c r="B629" s="5">
+      <c r="B629" s="7">
         <v>7.5</v>
       </c>
       <c r="C629" s="1">
@@ -9785,10 +9793,10 @@
       </c>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="5">
+      <c r="A630" s="7">
         <v>14.0</v>
       </c>
-      <c r="B630" s="5">
+      <c r="B630" s="7">
         <v>9.0</v>
       </c>
       <c r="C630" s="1">
@@ -9800,10 +9808,10 @@
       </c>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="5">
+      <c r="A631" s="7">
         <v>17.0</v>
       </c>
-      <c r="B631" s="5">
+      <c r="B631" s="7">
         <v>8.5</v>
       </c>
       <c r="C631" s="1">
@@ -9818,7 +9826,7 @@
       <c r="A632" s="2">
         <v>17.0</v>
       </c>
-      <c r="B632" s="5">
+      <c r="B632" s="7">
         <v>11.5</v>
       </c>
       <c r="C632" s="1">
@@ -9845,7 +9853,7 @@
       </c>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="5">
+      <c r="A634" s="7">
         <v>18.8</v>
       </c>
       <c r="B634" s="2">
@@ -9860,10 +9868,10 @@
       </c>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="5">
+      <c r="A635" s="7">
         <v>17.5</v>
       </c>
-      <c r="B635" s="5">
+      <c r="B635" s="7">
         <v>6.0</v>
       </c>
       <c r="C635" s="1">
@@ -9875,10 +9883,10 @@
       </c>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="5">
+      <c r="A636" s="7">
         <v>20.0</v>
       </c>
-      <c r="B636" s="5">
+      <c r="B636" s="7">
         <v>10.9</v>
       </c>
       <c r="C636" s="1">
@@ -9890,10 +9898,10 @@
       </c>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="5">
+      <c r="A637" s="7">
         <v>22.0</v>
       </c>
-      <c r="B637" s="5">
+      <c r="B637" s="7">
         <v>14.5</v>
       </c>
       <c r="C637" s="1">
@@ -9905,10 +9913,10 @@
       </c>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="5">
+      <c r="A638" s="7">
         <v>20.4</v>
       </c>
-      <c r="B638" s="5">
+      <c r="B638" s="7">
         <v>15.5</v>
       </c>
       <c r="C638" s="1">
@@ -9920,10 +9928,10 @@
       </c>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="6">
+      <c r="A639" s="8">
         <v>16.0</v>
       </c>
-      <c r="B639" s="5">
+      <c r="B639" s="7">
         <v>14.6</v>
       </c>
       <c r="C639" s="1">
@@ -9935,10 +9943,10 @@
       </c>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="5">
+      <c r="A640" s="7">
         <v>16.2</v>
       </c>
-      <c r="B640" s="5">
+      <c r="B640" s="7">
         <v>13.0</v>
       </c>
       <c r="C640" s="1">
@@ -9950,10 +9958,10 @@
       </c>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="5">
+      <c r="A641" s="7">
         <v>17.7</v>
       </c>
-      <c r="B641" s="5">
+      <c r="B641" s="7">
         <v>13.1</v>
       </c>
       <c r="C641" s="1">
@@ -9965,10 +9973,10 @@
       </c>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="5">
+      <c r="A642" s="7">
         <v>20.0</v>
       </c>
-      <c r="B642" s="5">
+      <c r="B642" s="7">
         <v>13.5</v>
       </c>
       <c r="C642" s="1">
@@ -9980,10 +9988,10 @@
       </c>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="5">
+      <c r="A643" s="7">
         <v>16.5</v>
       </c>
-      <c r="B643" s="5">
+      <c r="B643" s="7">
         <v>7.5</v>
       </c>
       <c r="C643" s="1">
@@ -9995,10 +10003,10 @@
       </c>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="5">
+      <c r="A644" s="7">
         <v>19.0</v>
       </c>
-      <c r="B644" s="5">
+      <c r="B644" s="7">
         <v>11.0</v>
       </c>
       <c r="C644" s="1">
@@ -10010,10 +10018,10 @@
       </c>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="5">
+      <c r="A645" s="7">
         <v>13.4</v>
       </c>
-      <c r="B645" s="5">
+      <c r="B645" s="7">
         <v>6.0</v>
       </c>
       <c r="C645" s="1">
@@ -10025,10 +10033,10 @@
       </c>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="5">
+      <c r="A646" s="7">
         <v>14.6</v>
       </c>
-      <c r="B646" s="5">
+      <c r="B646" s="7">
         <v>9.0</v>
       </c>
       <c r="C646" s="1">
@@ -10040,10 +10048,10 @@
       </c>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="5">
+      <c r="A647" s="7">
         <v>18.6</v>
       </c>
-      <c r="B647" s="5">
+      <c r="B647" s="7">
         <v>8.4</v>
       </c>
       <c r="C647" s="1">
@@ -10055,10 +10063,10 @@
       </c>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="5">
+      <c r="A648" s="7">
         <v>18.4</v>
       </c>
-      <c r="B648" s="5">
+      <c r="B648" s="7">
         <v>13.8</v>
       </c>
       <c r="C648" s="1">
@@ -10070,10 +10078,10 @@
       </c>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="5">
+      <c r="A649" s="7">
         <v>16.2</v>
       </c>
-      <c r="B649" s="5">
+      <c r="B649" s="7">
         <v>15.1</v>
       </c>
       <c r="C649" s="1">
@@ -10085,10 +10093,10 @@
       </c>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="5">
+      <c r="A650" s="7">
         <v>16.3</v>
       </c>
-      <c r="B650" s="5">
+      <c r="B650" s="7">
         <v>14.9</v>
       </c>
       <c r="C650" s="1">
@@ -10100,10 +10108,10 @@
       </c>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="5">
+      <c r="A651" s="7">
         <v>17.2</v>
       </c>
-      <c r="B651" s="5">
+      <c r="B651" s="7">
         <v>14.0</v>
       </c>
       <c r="C651" s="1">
@@ -10115,10 +10123,10 @@
       </c>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="5">
+      <c r="A652" s="7">
         <v>18.4</v>
       </c>
-      <c r="B652" s="5">
+      <c r="B652" s="7">
         <v>12.5</v>
       </c>
       <c r="C652" s="1">
@@ -10130,10 +10138,10 @@
       </c>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="5">
+      <c r="A653" s="7">
         <v>16.0</v>
       </c>
-      <c r="B653" s="5">
+      <c r="B653" s="7">
         <v>12.5</v>
       </c>
       <c r="C653" s="1">
@@ -10145,10 +10153,10 @@
       </c>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="5">
+      <c r="A654" s="7">
         <v>14.9</v>
       </c>
-      <c r="B654" s="5">
+      <c r="B654" s="7">
         <v>13.4</v>
       </c>
       <c r="C654" s="1">
@@ -10160,10 +10168,10 @@
       </c>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="5">
+      <c r="A655" s="7">
         <v>15.6</v>
       </c>
-      <c r="B655" s="5">
+      <c r="B655" s="7">
         <v>6.0</v>
       </c>
       <c r="C655" s="1">
@@ -10175,10 +10183,10 @@
       </c>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="5">
+      <c r="A656" s="7">
         <v>13.5</v>
       </c>
-      <c r="B656" s="5">
+      <c r="B656" s="7">
         <v>7.3</v>
       </c>
       <c r="C656" s="1">
@@ -10190,10 +10198,10 @@
       </c>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="5">
+      <c r="A657" s="7">
         <v>11.7</v>
       </c>
-      <c r="B657" s="5">
+      <c r="B657" s="7">
         <v>3.5</v>
       </c>
       <c r="C657" s="1">
@@ -10205,10 +10213,10 @@
       </c>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="5">
+      <c r="A658" s="7">
         <v>11.2</v>
       </c>
-      <c r="B658" s="5">
+      <c r="B658" s="7">
         <v>2.8</v>
       </c>
       <c r="C658" s="1">
@@ -10220,10 +10228,10 @@
       </c>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="5">
+      <c r="A659" s="7">
         <v>11.5</v>
       </c>
-      <c r="B659" s="5">
+      <c r="B659" s="7">
         <v>2.5</v>
       </c>
       <c r="C659" s="1">
@@ -10235,10 +10243,10 @@
       </c>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="5">
+      <c r="A660" s="7">
         <v>14.7</v>
       </c>
-      <c r="B660" s="5">
+      <c r="B660" s="7">
         <v>5.4</v>
       </c>
       <c r="C660" s="1">
@@ -10250,10 +10258,10 @@
       </c>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="5">
+      <c r="A661" s="7">
         <v>13.1</v>
       </c>
-      <c r="B661" s="5">
+      <c r="B661" s="7">
         <v>11.4</v>
       </c>
       <c r="C661" s="1">
@@ -10265,10 +10273,10 @@
       </c>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="5">
+      <c r="A662" s="7">
         <v>14.6</v>
       </c>
-      <c r="B662" s="5">
+      <c r="B662" s="7">
         <v>8.3</v>
       </c>
       <c r="C662" s="1">
@@ -10280,10 +10288,10 @@
       </c>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="5">
+      <c r="A663" s="7">
         <v>11.5</v>
       </c>
-      <c r="B663" s="5">
+      <c r="B663" s="7">
         <v>10.3</v>
       </c>
       <c r="C663" s="1">
@@ -10295,10 +10303,10 @@
       </c>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="5">
+      <c r="A664" s="7">
         <v>13.0</v>
       </c>
-      <c r="B664" s="5">
+      <c r="B664" s="7">
         <v>6.7</v>
       </c>
       <c r="C664" s="1">
@@ -10310,10 +10318,10 @@
       </c>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="5">
+      <c r="A665" s="7">
         <v>11.6</v>
       </c>
-      <c r="B665" s="5">
+      <c r="B665" s="7">
         <v>2.2</v>
       </c>
       <c r="C665" s="1">
@@ -10325,10 +10333,10 @@
       </c>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="5">
+      <c r="A666" s="7">
         <v>13.4</v>
       </c>
-      <c r="B666" s="5">
+      <c r="B666" s="7">
         <v>5.5</v>
       </c>
       <c r="C666" s="1">
@@ -10340,10 +10348,10 @@
       </c>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="5">
+      <c r="A667" s="7">
         <v>13.6</v>
       </c>
-      <c r="B667" s="5">
+      <c r="B667" s="7">
         <v>3.5</v>
       </c>
       <c r="C667" s="1">
@@ -10355,10 +10363,10 @@
       </c>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="5">
+      <c r="A668" s="7">
         <v>15.8</v>
       </c>
-      <c r="B668" s="5">
+      <c r="B668" s="7">
         <v>3.0</v>
       </c>
       <c r="C668" s="1">
@@ -10370,10 +10378,10 @@
       </c>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="5">
+      <c r="A669" s="7">
         <v>15.2</v>
       </c>
-      <c r="B669" s="5">
+      <c r="B669" s="7">
         <v>8.4</v>
       </c>
       <c r="C669" s="1">
@@ -10385,10 +10393,10 @@
       </c>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="5">
+      <c r="A670" s="7">
         <v>16.6</v>
       </c>
-      <c r="B670" s="5">
+      <c r="B670" s="7">
         <v>11.8</v>
       </c>
       <c r="C670" s="1">
@@ -10400,10 +10408,10 @@
       </c>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="5">
+      <c r="A671" s="7">
         <v>13.5</v>
       </c>
-      <c r="B671" s="5">
+      <c r="B671" s="7">
         <v>5.0</v>
       </c>
       <c r="C671" s="1">
@@ -10415,10 +10423,10 @@
       </c>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="5">
+      <c r="A672" s="7">
         <v>14.0</v>
       </c>
-      <c r="B672" s="5">
+      <c r="B672" s="7">
         <v>6.5</v>
       </c>
       <c r="C672" s="1">
@@ -10430,10 +10438,10 @@
       </c>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="5">
+      <c r="A673" s="7">
         <v>14.0</v>
       </c>
-      <c r="B673" s="5">
+      <c r="B673" s="7">
         <v>12.5</v>
       </c>
       <c r="C673" s="1">
@@ -10445,10 +10453,10 @@
       </c>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="5">
+      <c r="A674" s="7">
         <v>12.5</v>
       </c>
-      <c r="B674" s="5">
+      <c r="B674" s="7">
         <v>6.5</v>
       </c>
       <c r="C674" s="1">
@@ -10460,10 +10468,10 @@
       </c>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="5">
+      <c r="A675" s="7">
         <v>10.7</v>
       </c>
-      <c r="B675" s="5">
+      <c r="B675" s="7">
         <v>-0.7</v>
       </c>
       <c r="C675" s="1">
@@ -10475,10 +10483,10 @@
       </c>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="5">
+      <c r="A676" s="7">
         <v>12.5</v>
       </c>
-      <c r="B676" s="5">
+      <c r="B676" s="7">
         <v>-2.0</v>
       </c>
       <c r="C676" s="1">
@@ -10490,10 +10498,10 @@
       </c>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="5">
+      <c r="A677" s="7">
         <v>12.5</v>
       </c>
-      <c r="B677" s="5">
+      <c r="B677" s="7">
         <v>-1.0</v>
       </c>
       <c r="C677" s="1">
@@ -10505,10 +10513,10 @@
       </c>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="5">
+      <c r="A678" s="7">
         <v>13.0</v>
       </c>
-      <c r="B678" s="5">
+      <c r="B678" s="7">
         <v>0.0</v>
       </c>
       <c r="C678" s="1">
@@ -10520,10 +10528,10 @@
       </c>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="5">
+      <c r="A679" s="7">
         <v>15.5</v>
       </c>
-      <c r="B679" s="5">
+      <c r="B679" s="7">
         <v>10.0</v>
       </c>
       <c r="C679" s="1">
@@ -10535,10 +10543,10 @@
       </c>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="5">
+      <c r="A680" s="7">
         <v>14.5</v>
       </c>
-      <c r="B680" s="5">
+      <c r="B680" s="7">
         <v>7.5</v>
       </c>
       <c r="C680" s="1">
@@ -10550,10 +10558,10 @@
       </c>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="5">
+      <c r="A681" s="7">
         <v>13.9</v>
       </c>
-      <c r="B681" s="5">
+      <c r="B681" s="7">
         <v>7.5</v>
       </c>
       <c r="C681" s="1">
@@ -10565,10 +10573,10 @@
       </c>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="5">
+      <c r="A682" s="7">
         <v>14.0</v>
       </c>
-      <c r="B682" s="5">
+      <c r="B682" s="7">
         <v>6.5</v>
       </c>
       <c r="C682" s="1">
@@ -10580,10 +10588,10 @@
       </c>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="5">
+      <c r="A683" s="7">
         <v>15.6</v>
       </c>
-      <c r="B683" s="5">
+      <c r="B683" s="7">
         <v>7.0</v>
       </c>
       <c r="C683" s="1">
@@ -10595,10 +10603,10 @@
       </c>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="5">
+      <c r="A684" s="7">
         <v>14.6</v>
       </c>
-      <c r="B684" s="5">
+      <c r="B684" s="7">
         <v>12.5</v>
       </c>
       <c r="C684" s="1">
@@ -10610,10 +10618,10 @@
       </c>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="5">
+      <c r="A685" s="7">
         <v>13.7</v>
       </c>
-      <c r="B685" s="5">
+      <c r="B685" s="7">
         <v>5.5</v>
       </c>
       <c r="C685" s="1">
@@ -10625,10 +10633,10 @@
       </c>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="5">
+      <c r="A686" s="7">
         <v>12.0</v>
       </c>
-      <c r="B686" s="5">
+      <c r="B686" s="7">
         <v>5.5</v>
       </c>
       <c r="C686" s="1">
@@ -10640,10 +10648,10 @@
       </c>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="5">
+      <c r="A687" s="7">
         <v>13.0</v>
       </c>
-      <c r="B687" s="5">
+      <c r="B687" s="7">
         <v>5.5</v>
       </c>
       <c r="C687" s="1">
@@ -10655,10 +10663,10 @@
       </c>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="5">
+      <c r="A688" s="7">
         <v>14.0</v>
       </c>
-      <c r="B688" s="5">
+      <c r="B688" s="7">
         <v>9.5</v>
       </c>
       <c r="C688" s="1">
@@ -10670,10 +10678,10 @@
       </c>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="5">
+      <c r="A689" s="7">
         <v>13.4</v>
       </c>
-      <c r="B689" s="5">
+      <c r="B689" s="7">
         <v>11.0</v>
       </c>
       <c r="C689" s="1">
@@ -10685,10 +10693,10 @@
       </c>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="5">
+      <c r="A690" s="7">
         <v>12.6</v>
       </c>
-      <c r="B690" s="5">
+      <c r="B690" s="7">
         <v>10.0</v>
       </c>
       <c r="C690" s="1">
@@ -10700,10 +10708,10 @@
       </c>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="5">
+      <c r="A691" s="7">
         <v>11.0</v>
       </c>
-      <c r="B691" s="5">
+      <c r="B691" s="7">
         <v>8.5</v>
       </c>
       <c r="C691" s="1">
@@ -10715,10 +10723,10 @@
       </c>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="5">
+      <c r="A692" s="7">
         <v>11.0</v>
       </c>
-      <c r="B692" s="5">
+      <c r="B692" s="7">
         <v>0.5</v>
       </c>
       <c r="C692" s="1">
@@ -10730,10 +10738,10 @@
       </c>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="5">
+      <c r="A693" s="7">
         <v>12.5</v>
       </c>
-      <c r="B693" s="5">
+      <c r="B693" s="7">
         <v>2.0</v>
       </c>
       <c r="C693" s="1">
@@ -10745,10 +10753,10 @@
       </c>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="5">
+      <c r="A694" s="7">
         <v>12.0</v>
       </c>
-      <c r="B694" s="5">
+      <c r="B694" s="7">
         <v>10.9</v>
       </c>
       <c r="C694" s="1">
@@ -10760,10 +10768,10 @@
       </c>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="5">
+      <c r="A695" s="7">
         <v>11.0</v>
       </c>
-      <c r="B695" s="5">
+      <c r="B695" s="7">
         <v>5.0</v>
       </c>
       <c r="C695" s="1">
@@ -10775,10 +10783,10 @@
       </c>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="5">
+      <c r="A696" s="7">
         <v>13.5</v>
       </c>
-      <c r="B696" s="5">
+      <c r="B696" s="7">
         <v>5.5</v>
       </c>
       <c r="C696" s="1">
@@ -10790,10 +10798,10 @@
       </c>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="5">
+      <c r="A697" s="7">
         <v>10.0</v>
       </c>
-      <c r="B697" s="5">
+      <c r="B697" s="7">
         <v>5.9</v>
       </c>
       <c r="C697" s="1">
@@ -10805,10 +10813,10 @@
       </c>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="5">
+      <c r="A698" s="7">
         <v>13.0</v>
       </c>
-      <c r="B698" s="5">
+      <c r="B698" s="7">
         <v>3.4</v>
       </c>
       <c r="C698" s="1">
@@ -10820,10 +10828,10 @@
       </c>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="5">
+      <c r="A699" s="7">
         <v>8.6</v>
       </c>
-      <c r="B699" s="5">
+      <c r="B699" s="7">
         <v>8.4</v>
       </c>
       <c r="C699" s="1">
@@ -10835,10 +10843,10 @@
       </c>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="5">
+      <c r="A700" s="7">
         <v>9.6</v>
       </c>
-      <c r="B700" s="5">
+      <c r="B700" s="7">
         <v>3.0</v>
       </c>
       <c r="C700" s="1">
@@ -10850,10 +10858,10 @@
       </c>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="5">
+      <c r="A701" s="7">
         <v>6.5</v>
       </c>
-      <c r="B701" s="5">
+      <c r="B701" s="7">
         <v>1.5</v>
       </c>
       <c r="C701" s="1">
@@ -10865,10 +10873,10 @@
       </c>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="6">
+      <c r="A702" s="8">
         <v>10.1</v>
       </c>
-      <c r="B702" s="5">
+      <c r="B702" s="7">
         <v>-1.5</v>
       </c>
       <c r="C702" s="1">
@@ -10880,7 +10888,7 @@
       </c>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="6">
+      <c r="A703" s="8">
         <v>9.0</v>
       </c>
       <c r="B703" s="2">
@@ -10895,7 +10903,7 @@
       </c>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="5">
+      <c r="A704" s="7">
         <v>5.2</v>
       </c>
       <c r="B704" s="2">
@@ -10910,10 +10918,10 @@
       </c>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="5">
+      <c r="A705" s="7">
         <v>5.4</v>
       </c>
-      <c r="B705" s="5">
+      <c r="B705" s="7">
         <v>0.6</v>
       </c>
       <c r="C705" s="1">
@@ -10925,10 +10933,10 @@
       </c>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="5">
+      <c r="A706" s="7">
         <v>7.0</v>
       </c>
-      <c r="B706" s="5">
+      <c r="B706" s="7">
         <v>0.5</v>
       </c>
       <c r="C706" s="1">
@@ -10940,10 +10948,10 @@
       </c>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="5">
+      <c r="A707" s="7">
         <v>10.5</v>
       </c>
-      <c r="B707" s="5">
+      <c r="B707" s="7">
         <v>2.0</v>
       </c>
       <c r="C707" s="1">
@@ -10955,10 +10963,10 @@
       </c>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="5">
+      <c r="A708" s="7">
         <v>10.0</v>
       </c>
-      <c r="B708" s="5">
+      <c r="B708" s="7">
         <v>1.8</v>
       </c>
       <c r="C708" s="1">
@@ -10973,7 +10981,7 @@
       <c r="A709" s="2">
         <v>4.6</v>
       </c>
-      <c r="B709" s="5">
+      <c r="B709" s="7">
         <v>0.0</v>
       </c>
       <c r="C709" s="1">
@@ -11000,7 +11008,7 @@
       </c>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="5">
+      <c r="A711" s="7">
         <v>6.0</v>
       </c>
       <c r="B711" s="2">
@@ -11015,10 +11023,10 @@
       </c>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="5">
+      <c r="A712" s="7">
         <v>8.6</v>
       </c>
-      <c r="B712" s="5">
+      <c r="B712" s="7">
         <v>0.5</v>
       </c>
       <c r="C712" s="1">
@@ -11030,10 +11038,10 @@
       </c>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="5">
+      <c r="A713" s="7">
         <v>3.6</v>
       </c>
-      <c r="B713" s="5">
+      <c r="B713" s="7">
         <v>0.2</v>
       </c>
       <c r="C713" s="1">
@@ -11045,10 +11053,10 @@
       </c>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="5">
+      <c r="A714" s="7">
         <v>4.5</v>
       </c>
-      <c r="B714" s="5">
+      <c r="B714" s="7">
         <v>0.5</v>
       </c>
       <c r="C714" s="1">
@@ -11060,10 +11068,10 @@
       </c>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="5">
+      <c r="A715" s="7">
         <v>6.0</v>
       </c>
-      <c r="B715" s="5">
+      <c r="B715" s="7">
         <v>0.0</v>
       </c>
       <c r="C715" s="1">
@@ -11078,7 +11086,7 @@
       <c r="A716" s="2">
         <v>3.8</v>
       </c>
-      <c r="B716" s="5">
+      <c r="B716" s="7">
         <v>-2.3</v>
       </c>
       <c r="C716" s="1">
@@ -11105,7 +11113,7 @@
       </c>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="5">
+      <c r="A718" s="7">
         <v>7.4</v>
       </c>
       <c r="B718" s="2">
@@ -11120,10 +11128,10 @@
       </c>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="5">
+      <c r="A719" s="7">
         <v>9.5</v>
       </c>
-      <c r="B719" s="5">
+      <c r="B719" s="7">
         <v>0.2</v>
       </c>
       <c r="C719" s="1">
@@ -11135,10 +11143,10 @@
       </c>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="5">
+      <c r="A720" s="7">
         <v>11.0</v>
       </c>
-      <c r="B720" s="5">
+      <c r="B720" s="7">
         <v>4.4</v>
       </c>
       <c r="C720" s="1">
@@ -11150,10 +11158,10 @@
       </c>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="5">
+      <c r="A721" s="7">
         <v>11.5</v>
       </c>
-      <c r="B721" s="5">
+      <c r="B721" s="7">
         <v>4.9</v>
       </c>
       <c r="C721" s="1">
@@ -11168,7 +11176,7 @@
       <c r="A722" s="2">
         <v>12.0</v>
       </c>
-      <c r="B722" s="5">
+      <c r="B722" s="7">
         <v>9.2</v>
       </c>
       <c r="C722" s="1">
@@ -11330,7 +11338,7 @@
       </c>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="5">
+      <c r="A733" s="7">
         <v>12.5</v>
       </c>
       <c r="B733" s="2">
@@ -11345,10 +11353,10 @@
       </c>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="5">
+      <c r="A734" s="7">
         <v>6.5</v>
       </c>
-      <c r="B734" s="5">
+      <c r="B734" s="7">
         <v>1.6</v>
       </c>
       <c r="C734" s="1">
@@ -11360,10 +11368,10 @@
       </c>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="5">
+      <c r="A735" s="7">
         <v>10.0</v>
       </c>
-      <c r="B735" s="5">
+      <c r="B735" s="7">
         <v>3.0</v>
       </c>
       <c r="C735" s="1">
@@ -11375,10 +11383,10 @@
       </c>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="5">
+      <c r="A736" s="7">
         <v>9.0</v>
       </c>
-      <c r="B736" s="5">
+      <c r="B736" s="7">
         <v>6.0</v>
       </c>
       <c r="C736" s="1">
@@ -11393,7 +11401,7 @@
       <c r="A737" s="2">
         <v>10.5</v>
       </c>
-      <c r="B737" s="5">
+      <c r="B737" s="7">
         <v>2.5</v>
       </c>
       <c r="C737" s="1">
@@ -11420,7 +11428,7 @@
       </c>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="5">
+      <c r="A739" s="7">
         <v>11.5</v>
       </c>
       <c r="B739" s="2">
@@ -11435,10 +11443,10 @@
       </c>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="5">
+      <c r="A740" s="7">
         <v>10.5</v>
       </c>
-      <c r="B740" s="5">
+      <c r="B740" s="7">
         <v>8.5</v>
       </c>
       <c r="C740" s="1">
@@ -11450,10 +11458,10 @@
       </c>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="5">
+      <c r="A741" s="7">
         <v>11.0</v>
       </c>
-      <c r="B741" s="5">
+      <c r="B741" s="7">
         <v>5.5</v>
       </c>
       <c r="C741" s="1">
@@ -11465,10 +11473,10 @@
       </c>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="5">
+      <c r="A742" s="7">
         <v>12.0</v>
       </c>
-      <c r="B742" s="5">
+      <c r="B742" s="7">
         <v>8.5</v>
       </c>
       <c r="C742" s="1">
@@ -11480,10 +11488,10 @@
       </c>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="5">
+      <c r="A743" s="7">
         <v>10.0</v>
       </c>
-      <c r="B743" s="5">
+      <c r="B743" s="7">
         <v>8.5</v>
       </c>
       <c r="C743" s="1">
@@ -11498,7 +11506,7 @@
       <c r="A744" s="2">
         <v>4.4</v>
       </c>
-      <c r="B744" s="5">
+      <c r="B744" s="7">
         <v>0.5</v>
       </c>
       <c r="C744" s="1">
@@ -11525,7 +11533,7 @@
       </c>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="5">
+      <c r="A746" s="7">
         <v>7.0</v>
       </c>
       <c r="B746" s="2">
@@ -11540,10 +11548,10 @@
       </c>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="5">
+      <c r="A747" s="7">
         <v>8.0</v>
       </c>
-      <c r="B747" s="5">
+      <c r="B747" s="7">
         <v>3.2</v>
       </c>
       <c r="C747" s="1">
@@ -11555,10 +11563,10 @@
       </c>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="5">
+      <c r="A748" s="7">
         <v>11.5</v>
       </c>
-      <c r="B748" s="5">
+      <c r="B748" s="7">
         <v>4.5</v>
       </c>
       <c r="C748" s="1">
@@ -11570,10 +11578,10 @@
       </c>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="5">
+      <c r="A749" s="7">
         <v>9.5</v>
       </c>
-      <c r="B749" s="5">
+      <c r="B749" s="7">
         <v>7.0</v>
       </c>
       <c r="C749" s="1">
@@ -11585,10 +11593,10 @@
       </c>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="5">
+      <c r="A750" s="7">
         <v>8.5</v>
       </c>
-      <c r="B750" s="5">
+      <c r="B750" s="7">
         <v>4.5</v>
       </c>
       <c r="C750" s="1">
@@ -11603,7 +11611,7 @@
       <c r="A751" s="2">
         <v>9.8</v>
       </c>
-      <c r="B751" s="5">
+      <c r="B751" s="7">
         <v>4.0</v>
       </c>
       <c r="C751" s="1">
@@ -11630,7 +11638,7 @@
       </c>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="5">
+      <c r="A753" s="7">
         <v>11.0</v>
       </c>
       <c r="B753" s="2">
@@ -11645,10 +11653,10 @@
       </c>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="5">
+      <c r="A754" s="7">
         <v>10.5</v>
       </c>
-      <c r="B754" s="5">
+      <c r="B754" s="7">
         <v>4.5</v>
       </c>
       <c r="C754" s="1">
@@ -11660,10 +11668,10 @@
       </c>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="5">
+      <c r="A755" s="7">
         <v>11.5</v>
       </c>
-      <c r="B755" s="5">
+      <c r="B755" s="7">
         <v>3.0</v>
       </c>
       <c r="C755" s="1">
@@ -11675,10 +11683,10 @@
       </c>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="5">
+      <c r="A756" s="7">
         <v>11.0</v>
       </c>
-      <c r="B756" s="5">
+      <c r="B756" s="7">
         <v>9.5</v>
       </c>
       <c r="C756" s="1">
@@ -11690,10 +11698,10 @@
       </c>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="5">
+      <c r="A757" s="7">
         <v>6.5</v>
       </c>
-      <c r="B757" s="5">
+      <c r="B757" s="7">
         <v>1.0</v>
       </c>
       <c r="C757" s="1">
@@ -11708,7 +11716,7 @@
       <c r="A758" s="2">
         <v>7.0</v>
       </c>
-      <c r="B758" s="5">
+      <c r="B758" s="7">
         <v>1.0</v>
       </c>
       <c r="C758" s="1">
@@ -11735,7 +11743,7 @@
       </c>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="5">
+      <c r="A760" s="7">
         <v>9.0</v>
       </c>
       <c r="B760" s="2">
@@ -11750,10 +11758,10 @@
       </c>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="5">
+      <c r="A761" s="7">
         <v>5.0</v>
       </c>
-      <c r="B761" s="5">
+      <c r="B761" s="7">
         <v>4.2</v>
       </c>
       <c r="C761" s="1">
@@ -11765,10 +11773,10 @@
       </c>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="5">
+      <c r="A762" s="7">
         <v>4.5</v>
       </c>
-      <c r="B762" s="5">
+      <c r="B762" s="7">
         <v>3.0</v>
       </c>
       <c r="C762" s="1">
@@ -11780,10 +11788,10 @@
       </c>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="5">
+      <c r="A763" s="7">
         <v>5.0</v>
       </c>
-      <c r="B763" s="5">
+      <c r="B763" s="7">
         <v>-3.0</v>
       </c>
       <c r="C763" s="1">
@@ -11795,10 +11803,10 @@
       </c>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="5">
+      <c r="A764" s="7">
         <v>4.5</v>
       </c>
-      <c r="B764" s="5">
+      <c r="B764" s="7">
         <v>-5.0</v>
       </c>
       <c r="C764" s="1">
@@ -11810,10 +11818,10 @@
       </c>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="5">
+      <c r="A765" s="7">
         <v>5.8</v>
       </c>
-      <c r="B765" s="5">
+      <c r="B765" s="7">
         <v>-4.5</v>
       </c>
       <c r="C765" s="1">
@@ -11825,10 +11833,10 @@
       </c>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="5">
+      <c r="A766" s="7">
         <v>9.0</v>
       </c>
-      <c r="B766" s="5">
+      <c r="B766" s="7">
         <v>-2.2</v>
       </c>
       <c r="C766" s="1">
@@ -11840,10 +11848,10 @@
       </c>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="5">
+      <c r="A767" s="7">
         <v>8.5</v>
       </c>
-      <c r="B767" s="5">
+      <c r="B767" s="7">
         <v>2.0</v>
       </c>
       <c r="C767" s="1">
@@ -11855,10 +11863,10 @@
       </c>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="5">
+      <c r="A768" s="7">
         <v>8.5</v>
       </c>
-      <c r="B768" s="5">
+      <c r="B768" s="7">
         <v>2.5</v>
       </c>
       <c r="C768" s="1">
@@ -11870,10 +11878,10 @@
       </c>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="5">
+      <c r="A769" s="7">
         <v>8.0</v>
       </c>
-      <c r="B769" s="5">
+      <c r="B769" s="7">
         <v>4.0</v>
       </c>
       <c r="C769" s="1">
@@ -11885,10 +11893,10 @@
       </c>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="5">
+      <c r="A770" s="7">
         <v>6.2</v>
       </c>
-      <c r="B770" s="5">
+      <c r="B770" s="7">
         <v>0.7</v>
       </c>
       <c r="C770" s="1">
@@ -11900,10 +11908,10 @@
       </c>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="5">
+      <c r="A771" s="7">
         <v>9.4</v>
       </c>
-      <c r="B771" s="5">
+      <c r="B771" s="7">
         <v>4.0</v>
       </c>
       <c r="C771" s="1">
@@ -11915,10 +11923,10 @@
       </c>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="5">
+      <c r="A772" s="7">
         <v>11.0</v>
       </c>
-      <c r="B772" s="5">
+      <c r="B772" s="7">
         <v>6.2</v>
       </c>
       <c r="C772" s="1">
@@ -11930,10 +11938,10 @@
       </c>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="5">
+      <c r="A773" s="7">
         <v>8.2</v>
       </c>
-      <c r="B773" s="5">
+      <c r="B773" s="7">
         <v>6.4</v>
       </c>
       <c r="C773" s="1">
@@ -11945,10 +11953,10 @@
       </c>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="5">
+      <c r="A774" s="7">
         <v>7.5</v>
       </c>
-      <c r="B774" s="5">
+      <c r="B774" s="7">
         <v>5.4</v>
       </c>
       <c r="C774" s="1">
@@ -11960,10 +11968,10 @@
       </c>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="5">
+      <c r="A775" s="7">
         <v>9.0</v>
       </c>
-      <c r="B775" s="5">
+      <c r="B775" s="7">
         <v>4.5</v>
       </c>
       <c r="C775" s="1">
@@ -11975,10 +11983,10 @@
       </c>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="5">
+      <c r="A776" s="7">
         <v>10.1</v>
       </c>
-      <c r="B776" s="5">
+      <c r="B776" s="7">
         <v>4.5</v>
       </c>
       <c r="C776" s="1">
@@ -11990,10 +11998,10 @@
       </c>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="5">
+      <c r="A777" s="7">
         <v>10.0</v>
       </c>
-      <c r="B777" s="5">
+      <c r="B777" s="7">
         <v>4.6</v>
       </c>
       <c r="C777" s="1">
@@ -12005,10 +12013,10 @@
       </c>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="5">
+      <c r="A778" s="7">
         <v>10.0</v>
       </c>
-      <c r="B778" s="5">
+      <c r="B778" s="7">
         <v>6.0</v>
       </c>
       <c r="C778" s="1">
@@ -12020,10 +12028,10 @@
       </c>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="5">
+      <c r="A779" s="7">
         <v>11.5</v>
       </c>
-      <c r="B779" s="5">
+      <c r="B779" s="7">
         <v>7.5</v>
       </c>
       <c r="C779" s="1">
@@ -12035,10 +12043,10 @@
       </c>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="5">
+      <c r="A780" s="7">
         <v>8.0</v>
       </c>
-      <c r="B780" s="5">
+      <c r="B780" s="7">
         <v>5.5</v>
       </c>
       <c r="C780" s="1">
@@ -12050,10 +12058,10 @@
       </c>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="5">
+      <c r="A781" s="7">
         <v>8.6</v>
       </c>
-      <c r="B781" s="5">
+      <c r="B781" s="7">
         <v>-1.1</v>
       </c>
       <c r="C781" s="1">
@@ -12065,10 +12073,10 @@
       </c>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="5">
+      <c r="A782" s="7">
         <v>9.5</v>
       </c>
-      <c r="B782" s="5">
+      <c r="B782" s="7">
         <v>-1.0</v>
       </c>
       <c r="C782" s="1">
@@ -12080,10 +12088,10 @@
       </c>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="5">
+      <c r="A783" s="7">
         <v>13.2</v>
       </c>
-      <c r="B783" s="5">
+      <c r="B783" s="7">
         <v>5.5</v>
       </c>
       <c r="C783" s="1">
@@ -12095,10 +12103,10 @@
       </c>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="5">
+      <c r="A784" s="7">
         <v>13.7</v>
       </c>
-      <c r="B784" s="5">
+      <c r="B784" s="7">
         <v>9.3</v>
       </c>
       <c r="C784" s="1">
@@ -12110,10 +12118,10 @@
       </c>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="5">
+      <c r="A785" s="7">
         <v>13.7</v>
       </c>
-      <c r="B785" s="5">
+      <c r="B785" s="7">
         <v>11.2</v>
       </c>
       <c r="C785" s="1">
@@ -12125,10 +12133,10 @@
       </c>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="5">
+      <c r="A786" s="7">
         <v>11.3</v>
       </c>
-      <c r="B786" s="5">
+      <c r="B786" s="7">
         <v>8.5</v>
       </c>
       <c r="C786" s="1">
@@ -12140,10 +12148,10 @@
       </c>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="5">
+      <c r="A787" s="7">
         <v>11.2</v>
       </c>
-      <c r="B787" s="5">
+      <c r="B787" s="7">
         <v>2.8</v>
       </c>
       <c r="C787" s="1">
@@ -12155,10 +12163,10 @@
       </c>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="5">
+      <c r="A788" s="7">
         <v>12.0</v>
       </c>
-      <c r="B788" s="5">
+      <c r="B788" s="7">
         <v>2.3</v>
       </c>
       <c r="C788" s="1">
@@ -12170,10 +12178,10 @@
       </c>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="5">
+      <c r="A789" s="7">
         <v>11.0</v>
       </c>
-      <c r="B789" s="5">
+      <c r="B789" s="7">
         <v>7.1</v>
       </c>
       <c r="C789" s="1">
@@ -12185,10 +12193,10 @@
       </c>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="5">
+      <c r="A790" s="7">
         <v>12.0</v>
       </c>
-      <c r="B790" s="5">
+      <c r="B790" s="7">
         <v>9.2</v>
       </c>
       <c r="C790" s="1">
@@ -12200,10 +12208,10 @@
       </c>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="5">
+      <c r="A791" s="7">
         <v>13.5</v>
       </c>
-      <c r="B791" s="5">
+      <c r="B791" s="7">
         <v>8.5</v>
       </c>
       <c r="C791" s="1">
@@ -12215,10 +12223,10 @@
       </c>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="5">
+      <c r="A792" s="7">
         <v>13.5</v>
       </c>
-      <c r="B792" s="5">
+      <c r="B792" s="7">
         <v>9.0</v>
       </c>
       <c r="C792" s="1">
@@ -12230,10 +12238,10 @@
       </c>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="5">
+      <c r="A793" s="7">
         <v>11.5</v>
       </c>
-      <c r="B793" s="5">
+      <c r="B793" s="7">
         <v>4.5</v>
       </c>
       <c r="C793" s="1">
@@ -12245,10 +12253,10 @@
       </c>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="5">
+      <c r="A794" s="7">
         <v>10.9</v>
       </c>
-      <c r="B794" s="5">
+      <c r="B794" s="7">
         <v>5.8</v>
       </c>
       <c r="C794" s="1">
@@ -12260,10 +12268,10 @@
       </c>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="5">
+      <c r="A795" s="7">
         <v>8.1</v>
       </c>
-      <c r="B795" s="5">
+      <c r="B795" s="7">
         <v>-0.6</v>
       </c>
       <c r="C795" s="1">
@@ -12275,10 +12283,10 @@
       </c>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="5">
+      <c r="A796" s="7">
         <v>11.0</v>
       </c>
-      <c r="B796" s="5">
+      <c r="B796" s="7">
         <v>0.0</v>
       </c>
       <c r="C796" s="1">
@@ -12290,10 +12298,10 @@
       </c>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="5">
+      <c r="A797" s="7">
         <v>11.0</v>
       </c>
-      <c r="B797" s="5">
+      <c r="B797" s="7">
         <v>1.0</v>
       </c>
       <c r="C797" s="1">
@@ -12305,10 +12313,10 @@
       </c>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="5">
+      <c r="A798" s="7">
         <v>8.5</v>
       </c>
-      <c r="B798" s="5">
+      <c r="B798" s="7">
         <v>5.5</v>
       </c>
       <c r="C798" s="1">
@@ -12320,10 +12328,10 @@
       </c>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="5">
+      <c r="A799" s="7">
         <v>13.5</v>
       </c>
-      <c r="B799" s="5">
+      <c r="B799" s="7">
         <v>3.0</v>
       </c>
       <c r="C799" s="1">
@@ -12335,10 +12343,10 @@
       </c>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="5">
+      <c r="A800" s="7">
         <v>12.4</v>
       </c>
-      <c r="B800" s="5">
+      <c r="B800" s="7">
         <v>6.8</v>
       </c>
       <c r="C800" s="1">
@@ -12350,10 +12358,10 @@
       </c>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="5">
+      <c r="A801" s="7">
         <v>13.0</v>
       </c>
-      <c r="B801" s="5">
+      <c r="B801" s="7">
         <v>9.5</v>
       </c>
       <c r="C801" s="1">
@@ -12365,10 +12373,10 @@
       </c>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="5">
+      <c r="A802" s="7">
         <v>11.9</v>
       </c>
-      <c r="B802" s="5">
+      <c r="B802" s="7">
         <v>6.8</v>
       </c>
       <c r="C802" s="1">
@@ -12380,10 +12388,10 @@
       </c>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="5">
+      <c r="A803" s="7">
         <v>12.0</v>
       </c>
-      <c r="B803" s="5">
+      <c r="B803" s="7">
         <v>7.5</v>
       </c>
       <c r="C803" s="1">
@@ -12395,10 +12403,10 @@
       </c>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="5">
+      <c r="A804" s="7">
         <v>8.5</v>
       </c>
-      <c r="B804" s="5">
+      <c r="B804" s="7">
         <v>7.0</v>
       </c>
       <c r="C804" s="1">
@@ -12410,10 +12418,10 @@
       </c>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="5">
+      <c r="A805" s="7">
         <v>9.5</v>
       </c>
-      <c r="B805" s="5">
+      <c r="B805" s="7">
         <v>2.0</v>
       </c>
       <c r="C805" s="1">
@@ -12425,10 +12433,10 @@
       </c>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="5">
+      <c r="A806" s="7">
         <v>12.5</v>
       </c>
-      <c r="B806" s="5">
+      <c r="B806" s="7">
         <v>6.0</v>
       </c>
       <c r="C806" s="1">
@@ -12440,10 +12448,10 @@
       </c>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="5">
+      <c r="A807" s="7">
         <v>10.0</v>
       </c>
-      <c r="B807" s="5">
+      <c r="B807" s="7">
         <v>8.0</v>
       </c>
       <c r="C807" s="1">
@@ -12455,10 +12463,10 @@
       </c>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="5">
+      <c r="A808" s="7">
         <v>9.5</v>
       </c>
-      <c r="B808" s="5">
+      <c r="B808" s="7">
         <v>-0.5</v>
       </c>
       <c r="C808" s="1">
@@ -12470,10 +12478,10 @@
       </c>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="5">
+      <c r="A809" s="7">
         <v>11.1</v>
       </c>
-      <c r="B809" s="5">
+      <c r="B809" s="7">
         <v>0.4</v>
       </c>
       <c r="C809" s="1">
@@ -12485,10 +12493,10 @@
       </c>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="5">
+      <c r="A810" s="7">
         <v>13.3</v>
       </c>
-      <c r="B810" s="5">
+      <c r="B810" s="7">
         <v>1.0</v>
       </c>
       <c r="C810" s="1">
@@ -12500,10 +12508,10 @@
       </c>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="5">
+      <c r="A811" s="7">
         <v>13.0</v>
       </c>
-      <c r="B811" s="5">
+      <c r="B811" s="7">
         <v>5.2</v>
       </c>
       <c r="C811" s="1">
@@ -12515,10 +12523,10 @@
       </c>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="5">
+      <c r="A812" s="7">
         <v>10.5</v>
       </c>
-      <c r="B812" s="5">
+      <c r="B812" s="7">
         <v>8.2</v>
       </c>
       <c r="C812" s="1">
@@ -12530,10 +12538,10 @@
       </c>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="5">
+      <c r="A813" s="7">
         <v>15.5</v>
       </c>
-      <c r="B813" s="5">
+      <c r="B813" s="7">
         <v>2.8</v>
       </c>
       <c r="C813" s="1">
@@ -12545,10 +12553,10 @@
       </c>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="5">
+      <c r="A814" s="7">
         <v>12.2</v>
       </c>
-      <c r="B814" s="5">
+      <c r="B814" s="7">
         <v>6.0</v>
       </c>
       <c r="C814" s="1">
@@ -12560,10 +12568,10 @@
       </c>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="5">
+      <c r="A815" s="7">
         <v>18.4</v>
       </c>
-      <c r="B815" s="5">
+      <c r="B815" s="7">
         <v>2.2</v>
       </c>
       <c r="C815" s="1">
@@ -12575,10 +12583,10 @@
       </c>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="5">
+      <c r="A816" s="7">
         <v>20.5</v>
       </c>
-      <c r="B816" s="5">
+      <c r="B816" s="7">
         <v>7.0</v>
       </c>
       <c r="C816" s="1">
@@ -12590,10 +12598,10 @@
       </c>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="5">
+      <c r="A817" s="7">
         <v>20.5</v>
       </c>
-      <c r="B817" s="5">
+      <c r="B817" s="7">
         <v>4.0</v>
       </c>
       <c r="C817" s="1">
@@ -12605,10 +12613,10 @@
       </c>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="5">
+      <c r="A818" s="7">
         <v>21.0</v>
       </c>
-      <c r="B818" s="5">
+      <c r="B818" s="7">
         <v>3.0</v>
       </c>
       <c r="C818" s="1">
@@ -12620,10 +12628,10 @@
       </c>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="5">
+      <c r="A819" s="7">
         <v>20.0</v>
       </c>
-      <c r="B819" s="5">
+      <c r="B819" s="7">
         <v>1.5</v>
       </c>
       <c r="C819" s="1">
@@ -12635,10 +12643,10 @@
       </c>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="5">
+      <c r="A820" s="7">
         <v>19.5</v>
       </c>
-      <c r="B820" s="5">
+      <c r="B820" s="7">
         <v>4.0</v>
       </c>
       <c r="C820" s="1">
@@ -12650,10 +12658,10 @@
       </c>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="5">
+      <c r="A821" s="7">
         <v>13.0</v>
       </c>
-      <c r="B821" s="5">
+      <c r="B821" s="7">
         <v>6.5</v>
       </c>
       <c r="C821" s="1">
@@ -12665,10 +12673,10 @@
       </c>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="5">
+      <c r="A822" s="7">
         <v>12.5</v>
       </c>
-      <c r="B822" s="5">
+      <c r="B822" s="7">
         <v>8.1</v>
       </c>
       <c r="C822" s="1">
@@ -12680,10 +12688,10 @@
       </c>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="5">
+      <c r="A823" s="7">
         <v>13.0</v>
       </c>
-      <c r="B823" s="5">
+      <c r="B823" s="7">
         <v>0.0</v>
       </c>
       <c r="C823" s="1">
@@ -12695,10 +12703,10 @@
       </c>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="5">
+      <c r="A824" s="7">
         <v>12.0</v>
       </c>
-      <c r="B824" s="5">
+      <c r="B824" s="7">
         <v>6.6</v>
       </c>
       <c r="C824" s="1">
@@ -12710,10 +12718,10 @@
       </c>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="5">
+      <c r="A825" s="7">
         <v>10.0</v>
       </c>
-      <c r="B825" s="5">
+      <c r="B825" s="7">
         <v>4.5</v>
       </c>
       <c r="C825" s="1">
@@ -12725,10 +12733,10 @@
       </c>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="5">
+      <c r="A826" s="7">
         <v>7.0</v>
       </c>
-      <c r="B826" s="5">
+      <c r="B826" s="7">
         <v>1.0</v>
       </c>
       <c r="C826" s="1">
@@ -12740,10 +12748,10 @@
       </c>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="5">
+      <c r="A827" s="7">
         <v>11.0</v>
       </c>
-      <c r="B827" s="5">
+      <c r="B827" s="7">
         <v>0.5</v>
       </c>
       <c r="C827" s="1">
@@ -12755,10 +12763,10 @@
       </c>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="5">
+      <c r="A828" s="7">
         <v>11.4</v>
       </c>
-      <c r="B828" s="5">
+      <c r="B828" s="7">
         <v>2.5</v>
       </c>
       <c r="C828" s="1">
@@ -12770,10 +12778,10 @@
       </c>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="5">
+      <c r="A829" s="7">
         <v>13.8</v>
       </c>
-      <c r="B829" s="5">
+      <c r="B829" s="7">
         <v>4.8</v>
       </c>
       <c r="C829" s="1">
@@ -12785,10 +12793,10 @@
       </c>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="5">
+      <c r="A830" s="7">
         <v>11.7</v>
       </c>
-      <c r="B830" s="5">
+      <c r="B830" s="7">
         <v>8.0</v>
       </c>
       <c r="C830" s="1">
@@ -12800,10 +12808,10 @@
       </c>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="5">
+      <c r="A831" s="7">
         <v>11.0</v>
       </c>
-      <c r="B831" s="5">
+      <c r="B831" s="7">
         <v>6.2</v>
       </c>
       <c r="C831" s="1">
@@ -12815,10 +12823,10 @@
       </c>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="5">
+      <c r="A832" s="7">
         <v>11.8</v>
       </c>
-      <c r="B832" s="5">
+      <c r="B832" s="7">
         <v>1.5</v>
       </c>
       <c r="C832" s="1">
@@ -12830,10 +12838,10 @@
       </c>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="5">
+      <c r="A833" s="7">
         <v>14.5</v>
       </c>
-      <c r="B833" s="5">
+      <c r="B833" s="7">
         <v>0.5</v>
       </c>
       <c r="C833" s="1">
@@ -12845,10 +12853,10 @@
       </c>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="5">
+      <c r="A834" s="7">
         <v>13.5</v>
       </c>
-      <c r="B834" s="5">
+      <c r="B834" s="7">
         <v>1.0</v>
       </c>
       <c r="C834" s="1">
@@ -12860,10 +12868,10 @@
       </c>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="5">
+      <c r="A835" s="7">
         <v>11.2</v>
       </c>
-      <c r="B835" s="5">
+      <c r="B835" s="7">
         <v>3.5</v>
       </c>
       <c r="C835" s="1">
@@ -12875,10 +12883,10 @@
       </c>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="5">
+      <c r="A836" s="7">
         <v>10.5</v>
       </c>
-      <c r="B836" s="5">
+      <c r="B836" s="7">
         <v>1.9</v>
       </c>
       <c r="C836" s="1">
@@ -12890,10 +12898,10 @@
       </c>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="5">
+      <c r="A837" s="7">
         <v>11.5</v>
       </c>
-      <c r="B837" s="5">
+      <c r="B837" s="7">
         <v>-1.0</v>
       </c>
       <c r="C837" s="1">
@@ -12905,10 +12913,10 @@
       </c>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="5">
+      <c r="A838" s="7">
         <v>10.5</v>
       </c>
-      <c r="B838" s="5">
+      <c r="B838" s="7">
         <v>3.0</v>
       </c>
       <c r="C838" s="1">
@@ -12920,10 +12928,10 @@
       </c>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="5">
+      <c r="A839" s="7">
         <v>11.5</v>
       </c>
-      <c r="B839" s="5">
+      <c r="B839" s="7">
         <v>4.0</v>
       </c>
       <c r="C839" s="1">
@@ -12935,10 +12943,10 @@
       </c>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="5">
+      <c r="A840" s="7">
         <v>12.5</v>
       </c>
-      <c r="B840" s="5">
+      <c r="B840" s="7">
         <v>5.0</v>
       </c>
       <c r="C840" s="1">
@@ -12950,10 +12958,10 @@
       </c>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="5">
+      <c r="A841" s="7">
         <v>13.6</v>
       </c>
-      <c r="B841" s="5">
+      <c r="B841" s="7">
         <v>1.5</v>
       </c>
       <c r="C841" s="1">
@@ -12965,10 +12973,10 @@
       </c>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="5">
+      <c r="A842" s="7">
         <v>12.0</v>
       </c>
-      <c r="B842" s="5">
+      <c r="B842" s="7">
         <v>3.0</v>
       </c>
       <c r="C842" s="1">
@@ -12980,10 +12988,10 @@
       </c>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="5">
+      <c r="A843" s="7">
         <v>13.5</v>
       </c>
-      <c r="B843" s="5">
+      <c r="B843" s="7">
         <v>2.6</v>
       </c>
       <c r="C843" s="1">
@@ -12995,10 +13003,10 @@
       </c>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="5">
+      <c r="A844" s="7">
         <v>13.2</v>
       </c>
-      <c r="B844" s="5">
+      <c r="B844" s="7">
         <v>5.0</v>
       </c>
       <c r="C844" s="1">
@@ -13010,10 +13018,10 @@
       </c>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="5">
+      <c r="A845" s="7">
         <v>11.7</v>
       </c>
-      <c r="B845" s="5">
+      <c r="B845" s="7">
         <v>6.0</v>
       </c>
       <c r="C845" s="1">
@@ -13025,10 +13033,10 @@
       </c>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="5">
+      <c r="A846" s="7">
         <v>12.0</v>
       </c>
-      <c r="B846" s="5">
+      <c r="B846" s="7">
         <v>4.5</v>
       </c>
       <c r="C846" s="1">
@@ -13040,10 +13048,10 @@
       </c>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="5">
+      <c r="A847" s="7">
         <v>7.5</v>
       </c>
-      <c r="B847" s="5">
+      <c r="B847" s="7">
         <v>4.5</v>
       </c>
       <c r="C847" s="1">
@@ -13055,10 +13063,10 @@
       </c>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="5">
+      <c r="A848" s="7">
         <v>10.5</v>
       </c>
-      <c r="B848" s="5">
+      <c r="B848" s="7">
         <v>6.0</v>
       </c>
       <c r="C848" s="1">
@@ -13070,10 +13078,10 @@
       </c>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="5">
+      <c r="A849" s="7">
         <v>10.5</v>
       </c>
-      <c r="B849" s="5">
+      <c r="B849" s="7">
         <v>4.8</v>
       </c>
       <c r="C849" s="1">
@@ -13085,10 +13093,10 @@
       </c>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="5">
+      <c r="A850" s="7">
         <v>11.0</v>
       </c>
-      <c r="B850" s="5">
+      <c r="B850" s="7">
         <v>1.1</v>
       </c>
       <c r="C850" s="1">
@@ -13100,10 +13108,10 @@
       </c>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="5">
+      <c r="A851" s="7">
         <v>12.0</v>
       </c>
-      <c r="B851" s="5">
+      <c r="B851" s="7">
         <v>1.3</v>
       </c>
       <c r="C851" s="1">
@@ -13115,10 +13123,10 @@
       </c>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="5">
+      <c r="A852" s="7">
         <v>13.0</v>
       </c>
-      <c r="B852" s="5">
+      <c r="B852" s="7">
         <v>1.0</v>
       </c>
       <c r="C852" s="1">
@@ -13130,10 +13138,10 @@
       </c>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="5">
+      <c r="A853" s="7">
         <v>11.5</v>
       </c>
-      <c r="B853" s="5">
+      <c r="B853" s="7">
         <v>9.0</v>
       </c>
       <c r="C853" s="1">
@@ -13145,10 +13153,10 @@
       </c>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="5">
+      <c r="A854" s="7">
         <v>13.0</v>
       </c>
-      <c r="B854" s="5">
+      <c r="B854" s="7">
         <v>7.0</v>
       </c>
       <c r="C854" s="1">
@@ -13160,10 +13168,10 @@
       </c>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="5">
+      <c r="A855" s="7">
         <v>15.2</v>
       </c>
-      <c r="B855" s="5">
+      <c r="B855" s="7">
         <v>7.5</v>
       </c>
       <c r="C855" s="1">
@@ -13175,10 +13183,10 @@
       </c>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="5">
+      <c r="A856" s="7">
         <v>12.2</v>
       </c>
-      <c r="B856" s="5">
+      <c r="B856" s="7">
         <v>5.5</v>
       </c>
       <c r="C856" s="1">
@@ -13190,10 +13198,10 @@
       </c>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="5">
+      <c r="A857" s="7">
         <v>10.4</v>
       </c>
-      <c r="B857" s="5">
+      <c r="B857" s="7">
         <v>3.6</v>
       </c>
       <c r="C857" s="1">
@@ -13205,10 +13213,10 @@
       </c>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="5">
+      <c r="A858" s="7">
         <v>11.2</v>
       </c>
-      <c r="B858" s="5">
+      <c r="B858" s="7">
         <v>2.4</v>
       </c>
       <c r="C858" s="1">
@@ -13220,10 +13228,10 @@
       </c>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="5">
+      <c r="A859" s="7">
         <v>14.0</v>
       </c>
-      <c r="B859" s="5">
+      <c r="B859" s="7">
         <v>4.7</v>
       </c>
       <c r="C859" s="1">
@@ -13235,10 +13243,10 @@
       </c>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="5">
+      <c r="A860" s="7">
         <v>14.5</v>
       </c>
-      <c r="B860" s="5">
+      <c r="B860" s="7">
         <v>5.8</v>
       </c>
       <c r="C860" s="1">
@@ -13250,10 +13258,10 @@
       </c>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="5">
+      <c r="A861" s="7">
         <v>12.2</v>
       </c>
-      <c r="B861" s="5">
+      <c r="B861" s="7">
         <v>1.0</v>
       </c>
       <c r="C861" s="1">
@@ -13265,10 +13273,10 @@
       </c>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="5">
+      <c r="A862" s="7">
         <v>12.0</v>
       </c>
-      <c r="B862" s="5">
+      <c r="B862" s="7">
         <v>7.5</v>
       </c>
       <c r="C862" s="1">
@@ -13280,10 +13288,10 @@
       </c>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="5">
+      <c r="A863" s="7">
         <v>13.6</v>
       </c>
-      <c r="B863" s="5">
+      <c r="B863" s="7">
         <v>5.2</v>
       </c>
       <c r="C863" s="1">
@@ -13295,10 +13303,10 @@
       </c>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="5">
+      <c r="A864" s="7">
         <v>14.2</v>
       </c>
-      <c r="B864" s="5">
+      <c r="B864" s="7">
         <v>0.9</v>
       </c>
       <c r="C864" s="1">
@@ -13310,10 +13318,10 @@
       </c>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="5">
+      <c r="A865" s="7">
         <v>11.3</v>
       </c>
-      <c r="B865" s="5">
+      <c r="B865" s="7">
         <v>4.2</v>
       </c>
       <c r="C865" s="1">
@@ -13325,10 +13333,10 @@
       </c>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="5">
+      <c r="A866" s="7">
         <v>13.0</v>
       </c>
-      <c r="B866" s="5">
+      <c r="B866" s="7">
         <v>4.9</v>
       </c>
       <c r="C866" s="1">
@@ -13340,10 +13348,10 @@
       </c>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="5">
+      <c r="A867" s="7">
         <v>14.5</v>
       </c>
-      <c r="B867" s="5">
+      <c r="B867" s="7">
         <v>1.0</v>
       </c>
       <c r="C867" s="1">
@@ -13355,10 +13363,10 @@
       </c>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="5">
+      <c r="A868" s="7">
         <v>12.0</v>
       </c>
-      <c r="B868" s="5">
+      <c r="B868" s="7">
         <v>1.0</v>
       </c>
       <c r="C868" s="1">
@@ -13370,10 +13378,10 @@
       </c>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="5">
+      <c r="A869" s="7">
         <v>12.5</v>
       </c>
-      <c r="B869" s="5">
+      <c r="B869" s="7">
         <v>7.0</v>
       </c>
       <c r="C869" s="1">
@@ -13385,10 +13393,10 @@
       </c>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="5">
+      <c r="A870" s="7">
         <v>11.5</v>
       </c>
-      <c r="B870" s="5">
+      <c r="B870" s="7">
         <v>6.5</v>
       </c>
       <c r="C870" s="1">
@@ -13400,10 +13408,10 @@
       </c>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="5">
+      <c r="A871" s="7">
         <v>11.6</v>
       </c>
-      <c r="B871" s="5">
+      <c r="B871" s="7">
         <v>7.1</v>
       </c>
       <c r="C871" s="1">
@@ -13415,10 +13423,10 @@
       </c>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="5">
+      <c r="A872" s="7">
         <v>16.5</v>
       </c>
-      <c r="B872" s="5">
+      <c r="B872" s="7">
         <v>3.9</v>
       </c>
       <c r="C872" s="1">
@@ -13430,10 +13438,10 @@
       </c>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="5">
+      <c r="A873" s="7">
         <v>19.5</v>
       </c>
-      <c r="B873" s="5">
+      <c r="B873" s="7">
         <v>7.8</v>
       </c>
       <c r="C873" s="1">
@@ -13445,10 +13453,10 @@
       </c>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="5">
+      <c r="A874" s="7">
         <v>19.0</v>
       </c>
-      <c r="B874" s="5">
+      <c r="B874" s="7">
         <v>9.5</v>
       </c>
       <c r="C874" s="1">
@@ -13460,10 +13468,10 @@
       </c>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="5">
+      <c r="A875" s="7">
         <v>20.5</v>
       </c>
-      <c r="B875" s="5">
+      <c r="B875" s="7">
         <v>12.5</v>
       </c>
       <c r="C875" s="1">
@@ -13475,10 +13483,10 @@
       </c>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="5">
+      <c r="A876" s="7">
         <v>24.0</v>
       </c>
-      <c r="B876" s="5">
+      <c r="B876" s="7">
         <v>7.0</v>
       </c>
       <c r="C876" s="1">
@@ -13490,10 +13498,10 @@
       </c>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="5">
+      <c r="A877" s="7">
         <v>24.4</v>
       </c>
-      <c r="B877" s="5">
+      <c r="B877" s="7">
         <v>12.0</v>
       </c>
       <c r="C877" s="1">
@@ -13505,10 +13513,10 @@
       </c>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="5">
+      <c r="A878" s="7">
         <v>23.2</v>
       </c>
-      <c r="B878" s="5">
+      <c r="B878" s="7">
         <v>11.6</v>
       </c>
       <c r="C878" s="1">
@@ -13520,10 +13528,10 @@
       </c>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="5">
+      <c r="A879" s="7">
         <v>24.0</v>
       </c>
-      <c r="B879" s="5">
+      <c r="B879" s="7">
         <v>10.2</v>
       </c>
       <c r="C879" s="1">
@@ -13535,10 +13543,10 @@
       </c>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="5">
+      <c r="A880" s="7">
         <v>21.5</v>
       </c>
-      <c r="B880" s="5">
+      <c r="B880" s="7">
         <v>12.0</v>
       </c>
       <c r="C880" s="1">
@@ -13550,10 +13558,10 @@
       </c>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="5">
+      <c r="A881" s="7">
         <v>18.5</v>
       </c>
-      <c r="B881" s="5">
+      <c r="B881" s="7">
         <v>7.3</v>
       </c>
       <c r="C881" s="1">
@@ -13565,10 +13573,10 @@
       </c>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="5">
+      <c r="A882" s="7">
         <v>19.8</v>
       </c>
-      <c r="B882" s="5">
+      <c r="B882" s="7">
         <v>12.0</v>
       </c>
       <c r="C882" s="1">
@@ -13580,10 +13588,10 @@
       </c>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="5">
+      <c r="A883" s="7">
         <v>16.5</v>
       </c>
-      <c r="B883" s="5">
+      <c r="B883" s="7">
         <v>12.5</v>
       </c>
       <c r="C883" s="1">
@@ -13595,10 +13603,10 @@
       </c>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="5">
+      <c r="A884" s="7">
         <v>20.0</v>
       </c>
-      <c r="B884" s="5">
+      <c r="B884" s="7">
         <v>13.0</v>
       </c>
       <c r="C884" s="1">
@@ -13610,10 +13618,10 @@
       </c>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="5">
+      <c r="A885" s="7">
         <v>16.7</v>
       </c>
-      <c r="B885" s="5">
+      <c r="B885" s="7">
         <v>12.3</v>
       </c>
       <c r="C885" s="1">
@@ -13625,10 +13633,10 @@
       </c>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="5">
+      <c r="A886" s="7">
         <v>13.0</v>
       </c>
-      <c r="B886" s="5">
+      <c r="B886" s="7">
         <v>9.6</v>
       </c>
       <c r="C886" s="1">
@@ -13640,10 +13648,10 @@
       </c>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="5">
+      <c r="A887" s="7">
         <v>15.7</v>
       </c>
-      <c r="B887" s="5">
+      <c r="B887" s="7">
         <v>7.0</v>
       </c>
       <c r="C887" s="1">
@@ -13655,10 +13663,10 @@
       </c>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="5">
+      <c r="A888" s="7">
         <v>14.5</v>
       </c>
-      <c r="B888" s="5">
+      <c r="B888" s="7">
         <v>7.5</v>
       </c>
       <c r="C888" s="1">
@@ -13670,10 +13678,10 @@
       </c>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="5">
+      <c r="A889" s="7">
         <v>18.5</v>
       </c>
-      <c r="B889" s="5">
+      <c r="B889" s="7">
         <v>10.0</v>
       </c>
       <c r="C889" s="1">
@@ -13685,10 +13693,10 @@
       </c>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="5">
+      <c r="A890" s="7">
         <v>14.5</v>
       </c>
-      <c r="B890" s="5">
+      <c r="B890" s="7">
         <v>11.0</v>
       </c>
       <c r="C890" s="1">
@@ -13700,10 +13708,10 @@
       </c>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="5">
+      <c r="A891" s="7">
         <v>12.5</v>
       </c>
-      <c r="B891" s="5">
+      <c r="B891" s="7">
         <v>11.0</v>
       </c>
       <c r="C891" s="1">
@@ -13715,10 +13723,10 @@
       </c>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="5">
+      <c r="A892" s="7">
         <v>17.5</v>
       </c>
-      <c r="B892" s="5">
+      <c r="B892" s="7">
         <v>8.2</v>
       </c>
       <c r="C892" s="1">
@@ -13730,10 +13738,10 @@
       </c>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="5">
+      <c r="A893" s="7">
         <v>18.5</v>
       </c>
-      <c r="B893" s="5">
+      <c r="B893" s="7">
         <v>6.0</v>
       </c>
       <c r="C893" s="1">
@@ -13745,10 +13753,10 @@
       </c>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="5">
+      <c r="A894" s="7">
         <v>19.5</v>
       </c>
-      <c r="B894" s="5">
+      <c r="B894" s="7">
         <v>8.0</v>
       </c>
       <c r="C894" s="1">
@@ -13760,10 +13768,10 @@
       </c>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="5">
+      <c r="A895" s="7">
         <v>14.5</v>
       </c>
-      <c r="B895" s="5">
+      <c r="B895" s="7">
         <v>11.0</v>
       </c>
       <c r="C895" s="1">
@@ -13775,10 +13783,10 @@
       </c>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="5">
+      <c r="A896" s="7">
         <v>15.5</v>
       </c>
-      <c r="B896" s="5">
+      <c r="B896" s="7">
         <v>10.5</v>
       </c>
       <c r="C896" s="1">
@@ -13790,10 +13798,10 @@
       </c>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="5">
+      <c r="A897" s="7">
         <v>15.5</v>
       </c>
-      <c r="B897" s="5">
+      <c r="B897" s="7">
         <v>8.5</v>
       </c>
       <c r="C897" s="1">
@@ -13805,10 +13813,10 @@
       </c>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="5">
+      <c r="A898" s="7">
         <v>17.0</v>
       </c>
-      <c r="B898" s="5">
+      <c r="B898" s="7">
         <v>10.0</v>
       </c>
       <c r="C898" s="1">
@@ -13820,10 +13828,10 @@
       </c>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="5">
+      <c r="A899" s="7">
         <v>15.1</v>
       </c>
-      <c r="B899" s="5">
+      <c r="B899" s="7">
         <v>11.4</v>
       </c>
       <c r="C899" s="1">
@@ -13835,10 +13843,10 @@
       </c>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="5">
+      <c r="A900" s="7">
         <v>17.5</v>
       </c>
-      <c r="B900" s="5">
+      <c r="B900" s="7">
         <v>7.5</v>
       </c>
       <c r="C900" s="1">
@@ -13850,10 +13858,10 @@
       </c>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="5">
+      <c r="A901" s="7">
         <v>17.5</v>
       </c>
-      <c r="B901" s="5">
+      <c r="B901" s="7">
         <v>6.4</v>
       </c>
       <c r="C901" s="1">
@@ -13865,10 +13873,10 @@
       </c>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="5">
+      <c r="A902" s="7">
         <v>19.0</v>
       </c>
-      <c r="B902" s="5">
+      <c r="B902" s="7">
         <v>6.5</v>
       </c>
       <c r="C902" s="1">
@@ -13880,10 +13888,10 @@
       </c>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="5">
+      <c r="A903" s="7">
         <v>20.5</v>
       </c>
-      <c r="B903" s="5">
+      <c r="B903" s="7">
         <v>8.0</v>
       </c>
       <c r="C903" s="1">
@@ -13895,10 +13903,10 @@
       </c>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="5">
+      <c r="A904" s="7">
         <v>17.5</v>
       </c>
-      <c r="B904" s="5">
+      <c r="B904" s="7">
         <v>11.0</v>
       </c>
       <c r="C904" s="1">
@@ -13910,10 +13918,10 @@
       </c>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="5">
+      <c r="A905" s="7">
         <v>16.1</v>
       </c>
-      <c r="B905" s="5">
+      <c r="B905" s="7">
         <v>11.0</v>
       </c>
       <c r="C905" s="1">
@@ -13925,10 +13933,10 @@
       </c>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="5">
+      <c r="A906" s="7">
         <v>16.7</v>
       </c>
-      <c r="B906" s="5">
+      <c r="B906" s="7">
         <v>10.4</v>
       </c>
       <c r="C906" s="1">
@@ -13940,10 +13948,10 @@
       </c>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="5">
+      <c r="A907" s="7">
         <v>18.5</v>
       </c>
-      <c r="B907" s="5">
+      <c r="B907" s="7">
         <v>10.4</v>
       </c>
       <c r="C907" s="1">
@@ -13955,10 +13963,10 @@
       </c>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="5">
+      <c r="A908" s="7">
         <v>20.0</v>
       </c>
-      <c r="B908" s="5">
+      <c r="B908" s="7">
         <v>8.5</v>
       </c>
       <c r="C908" s="1">
@@ -13970,10 +13978,10 @@
       </c>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="5">
+      <c r="A909" s="7">
         <v>22.5</v>
       </c>
-      <c r="B909" s="5">
+      <c r="B909" s="7">
         <v>13.0</v>
       </c>
       <c r="C909" s="1">
@@ -13985,10 +13993,10 @@
       </c>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="5">
+      <c r="A910" s="7">
         <v>22.5</v>
       </c>
-      <c r="B910" s="5">
+      <c r="B910" s="7">
         <v>16.0</v>
       </c>
       <c r="C910" s="1">
@@ -14000,10 +14008,10 @@
       </c>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="5">
+      <c r="A911" s="7">
         <v>21.0</v>
       </c>
-      <c r="B911" s="5">
+      <c r="B911" s="7">
         <v>15.0</v>
       </c>
       <c r="C911" s="1">
@@ -14015,10 +14023,10 @@
       </c>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="5">
+      <c r="A912" s="7">
         <v>19.0</v>
       </c>
-      <c r="B912" s="5">
+      <c r="B912" s="7">
         <v>13.0</v>
       </c>
       <c r="C912" s="1">
@@ -14030,10 +14038,10 @@
       </c>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="5">
+      <c r="A913" s="7">
         <v>15.9</v>
       </c>
-      <c r="B913" s="5">
+      <c r="B913" s="7">
         <v>11.3</v>
       </c>
       <c r="C913" s="1">
@@ -14045,10 +14053,10 @@
       </c>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="5">
+      <c r="A914" s="7">
         <v>17.0</v>
       </c>
-      <c r="B914" s="5">
+      <c r="B914" s="7">
         <v>10.0</v>
       </c>
       <c r="C914" s="1">
@@ -14060,10 +14068,10 @@
       </c>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="5">
+      <c r="A915" s="7">
         <v>21.5</v>
       </c>
-      <c r="B915" s="5">
+      <c r="B915" s="7">
         <v>12.5</v>
       </c>
       <c r="C915" s="1">
@@ -14075,10 +14083,10 @@
       </c>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="5">
+      <c r="A916" s="7">
         <v>17.0</v>
       </c>
-      <c r="B916" s="5">
+      <c r="B916" s="7">
         <v>14.0</v>
       </c>
       <c r="C916" s="1">
@@ -14090,10 +14098,10 @@
       </c>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="5">
+      <c r="A917" s="7">
         <v>19.0</v>
       </c>
-      <c r="B917" s="5">
+      <c r="B917" s="7">
         <v>12.0</v>
       </c>
       <c r="C917" s="1">
@@ -14105,10 +14113,10 @@
       </c>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="5">
+      <c r="A918" s="7">
         <v>21.5</v>
       </c>
-      <c r="B918" s="5">
+      <c r="B918" s="7">
         <v>10.5</v>
       </c>
       <c r="C918" s="1">
@@ -14120,10 +14128,10 @@
       </c>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="5">
+      <c r="A919" s="7">
         <v>18.2</v>
       </c>
-      <c r="B919" s="5">
+      <c r="B919" s="7">
         <v>9.5</v>
       </c>
       <c r="C919" s="1">
@@ -14135,10 +14143,10 @@
       </c>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="5">
+      <c r="A920" s="7">
         <v>21.0</v>
       </c>
-      <c r="B920" s="5">
+      <c r="B920" s="7">
         <v>14.5</v>
       </c>
       <c r="C920" s="1">
@@ -14150,10 +14158,10 @@
       </c>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="5">
+      <c r="A921" s="7">
         <v>15.4</v>
       </c>
-      <c r="B921" s="5">
+      <c r="B921" s="7">
         <v>12.8</v>
       </c>
       <c r="C921" s="1">
@@ -14165,10 +14173,10 @@
       </c>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="5">
+      <c r="A922" s="7">
         <v>16.5</v>
       </c>
-      <c r="B922" s="5">
+      <c r="B922" s="7">
         <v>10.5</v>
       </c>
       <c r="C922" s="1">
@@ -14180,10 +14188,10 @@
       </c>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="5">
+      <c r="A923" s="7">
         <v>18.0</v>
       </c>
-      <c r="B923" s="5">
+      <c r="B923" s="7">
         <v>9.5</v>
       </c>
       <c r="C923" s="1">
@@ -14195,10 +14203,10 @@
       </c>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="5">
+      <c r="A924" s="7">
         <v>17.0</v>
       </c>
-      <c r="B924" s="5">
+      <c r="B924" s="7">
         <v>10.5</v>
       </c>
       <c r="C924" s="1">
@@ -14210,10 +14218,10 @@
       </c>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="5">
+      <c r="A925" s="7">
         <v>17.0</v>
       </c>
-      <c r="B925" s="5">
+      <c r="B925" s="7">
         <v>6.5</v>
       </c>
       <c r="C925" s="1">
@@ -14225,10 +14233,10 @@
       </c>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="5">
+      <c r="A926" s="7">
         <v>16.4</v>
       </c>
-      <c r="B926" s="5">
+      <c r="B926" s="7">
         <v>10.5</v>
       </c>
       <c r="C926" s="1">
@@ -14240,10 +14248,10 @@
       </c>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="5">
+      <c r="A927" s="7">
         <v>16.2</v>
       </c>
-      <c r="B927" s="5">
+      <c r="B927" s="7">
         <v>9.2</v>
       </c>
       <c r="C927" s="1">
@@ -14255,10 +14263,10 @@
       </c>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="5">
+      <c r="A928" s="7">
         <v>18.5</v>
       </c>
-      <c r="B928" s="5">
+      <c r="B928" s="7">
         <v>7.5</v>
       </c>
       <c r="C928" s="1">
@@ -14270,10 +14278,10 @@
       </c>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="5">
+      <c r="A929" s="7">
         <v>19.0</v>
       </c>
-      <c r="B929" s="5">
+      <c r="B929" s="7">
         <v>12.0</v>
       </c>
       <c r="C929" s="1">
@@ -14285,10 +14293,10 @@
       </c>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="5">
+      <c r="A930" s="7">
         <v>22.5</v>
       </c>
-      <c r="B930" s="5">
+      <c r="B930" s="7">
         <v>14.0</v>
       </c>
       <c r="C930" s="1">
@@ -14300,10 +14308,10 @@
       </c>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="5">
+      <c r="A931" s="7">
         <v>20.0</v>
       </c>
-      <c r="B931" s="5">
+      <c r="B931" s="7">
         <v>13.5</v>
       </c>
       <c r="C931" s="1">
@@ -14315,10 +14323,10 @@
       </c>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="5">
+      <c r="A932" s="7">
         <v>16.5</v>
       </c>
-      <c r="B932" s="5">
+      <c r="B932" s="7">
         <v>9.5</v>
       </c>
       <c r="C932" s="1">
@@ -14330,10 +14338,10 @@
       </c>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="5">
+      <c r="A933" s="7">
         <v>17.8</v>
       </c>
-      <c r="B933" s="5">
+      <c r="B933" s="7">
         <v>10.0</v>
       </c>
       <c r="C933" s="1">
@@ -14345,10 +14353,10 @@
       </c>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="5">
+      <c r="A934" s="7">
         <v>20.3</v>
       </c>
-      <c r="B934" s="5">
+      <c r="B934" s="7">
         <v>7.5</v>
       </c>
       <c r="C934" s="1">
@@ -14360,10 +14368,10 @@
       </c>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="5">
+      <c r="A935" s="7">
         <v>21.3</v>
       </c>
-      <c r="B935" s="5">
+      <c r="B935" s="7">
         <v>12.3</v>
       </c>
       <c r="C935" s="1">
@@ -14375,10 +14383,10 @@
       </c>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="5">
+      <c r="A936" s="7">
         <v>23.0</v>
       </c>
-      <c r="B936" s="5">
+      <c r="B936" s="7">
         <v>17.0</v>
       </c>
       <c r="C936" s="1">
@@ -14390,10 +14398,10 @@
       </c>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="5">
+      <c r="A937" s="7">
         <v>19.5</v>
       </c>
-      <c r="B937" s="5">
+      <c r="B937" s="7">
         <v>15.5</v>
       </c>
       <c r="C937" s="1">
@@ -14405,10 +14413,10 @@
       </c>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="5">
+      <c r="A938" s="7">
         <v>19.5</v>
       </c>
-      <c r="B938" s="5">
+      <c r="B938" s="7">
         <v>13.5</v>
       </c>
       <c r="C938" s="1">
@@ -14420,10 +14428,10 @@
       </c>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="5">
+      <c r="A939" s="7">
         <v>22.5</v>
       </c>
-      <c r="B939" s="5">
+      <c r="B939" s="7">
         <v>9.5</v>
       </c>
       <c r="C939" s="1">
@@ -14435,10 +14443,10 @@
       </c>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="5">
+      <c r="A940" s="7">
         <v>19.5</v>
       </c>
-      <c r="B940" s="5">
+      <c r="B940" s="7">
         <v>10.0</v>
       </c>
       <c r="C940" s="1">
@@ -14450,10 +14458,10 @@
       </c>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="5">
+      <c r="A941" s="7">
         <v>17.8</v>
       </c>
-      <c r="B941" s="5">
+      <c r="B941" s="7">
         <v>8.0</v>
       </c>
       <c r="C941" s="1">
@@ -14465,10 +14473,10 @@
       </c>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="5">
+      <c r="A942" s="7">
         <v>17.5</v>
       </c>
-      <c r="B942" s="5">
+      <c r="B942" s="7">
         <v>7.8</v>
       </c>
       <c r="C942" s="1">
@@ -14480,10 +14488,10 @@
       </c>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="5">
+      <c r="A943" s="7">
         <v>19.0</v>
       </c>
-      <c r="B943" s="5">
+      <c r="B943" s="7">
         <v>7.1</v>
       </c>
       <c r="C943" s="1">
@@ -14495,10 +14503,10 @@
       </c>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="5">
+      <c r="A944" s="7">
         <v>17.5</v>
       </c>
-      <c r="B944" s="5">
+      <c r="B944" s="7">
         <v>11.9</v>
       </c>
       <c r="C944" s="1">
@@ -14510,10 +14518,10 @@
       </c>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="5">
+      <c r="A945" s="7">
         <v>18.5</v>
       </c>
-      <c r="B945" s="5">
+      <c r="B945" s="7">
         <v>13.5</v>
       </c>
       <c r="C945" s="1">
@@ -14525,10 +14533,10 @@
       </c>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="5">
+      <c r="A946" s="7">
         <v>20.8</v>
       </c>
-      <c r="B946" s="5">
+      <c r="B946" s="7">
         <v>10.0</v>
       </c>
       <c r="C946" s="1">
@@ -14540,10 +14548,10 @@
       </c>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="5">
+      <c r="A947" s="7">
         <v>21.5</v>
       </c>
-      <c r="B947" s="5">
+      <c r="B947" s="7">
         <v>13.5</v>
       </c>
       <c r="C947" s="1">
@@ -14555,10 +14563,10 @@
       </c>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="5">
+      <c r="A948" s="7">
         <v>19.3</v>
       </c>
-      <c r="B948" s="5">
+      <c r="B948" s="7">
         <v>13.0</v>
       </c>
       <c r="C948" s="1">
@@ -14570,10 +14578,10 @@
       </c>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="5">
+      <c r="A949" s="7">
         <v>16.8</v>
       </c>
-      <c r="B949" s="5">
+      <c r="B949" s="7">
         <v>10.3</v>
       </c>
       <c r="C949" s="1">
@@ -14585,10 +14593,10 @@
       </c>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="5">
+      <c r="A950" s="7">
         <v>19.0</v>
       </c>
-      <c r="B950" s="5">
+      <c r="B950" s="7">
         <v>10.7</v>
       </c>
       <c r="C950" s="1">
@@ -14600,10 +14608,10 @@
       </c>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="5">
+      <c r="A951" s="7">
         <v>19.0</v>
       </c>
-      <c r="B951" s="5">
+      <c r="B951" s="7">
         <v>11.3</v>
       </c>
       <c r="C951" s="1">
@@ -14615,10 +14623,10 @@
       </c>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="5">
+      <c r="A952" s="7">
         <v>21.5</v>
       </c>
-      <c r="B952" s="5">
+      <c r="B952" s="7">
         <v>12.5</v>
       </c>
       <c r="C952" s="1">
@@ -14630,10 +14638,10 @@
       </c>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="5">
+      <c r="A953" s="7">
         <v>25.0</v>
       </c>
-      <c r="B953" s="5">
+      <c r="B953" s="7">
         <v>14.0</v>
       </c>
       <c r="C953" s="1">
@@ -14645,10 +14653,10 @@
       </c>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="5">
+      <c r="A954" s="7">
         <v>25.5</v>
       </c>
-      <c r="B954" s="5">
+      <c r="B954" s="7">
         <v>14.5</v>
       </c>
       <c r="C954" s="1">
@@ -14660,10 +14668,10 @@
       </c>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="5">
+      <c r="A955" s="7">
         <v>22.9</v>
       </c>
-      <c r="B955" s="5">
+      <c r="B955" s="7">
         <v>13.5</v>
       </c>
       <c r="C955" s="1">
@@ -14675,10 +14683,10 @@
       </c>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="5">
+      <c r="A956" s="7">
         <v>20.4</v>
       </c>
-      <c r="B956" s="5">
+      <c r="B956" s="7">
         <v>15.8</v>
       </c>
       <c r="C956" s="1">
@@ -14690,10 +14698,10 @@
       </c>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="5">
+      <c r="A957" s="7">
         <v>23.5</v>
       </c>
-      <c r="B957" s="5">
+      <c r="B957" s="7">
         <v>13.3</v>
       </c>
       <c r="C957" s="1">
@@ -14705,10 +14713,10 @@
       </c>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="5">
+      <c r="A958" s="7">
         <v>24.0</v>
       </c>
-      <c r="B958" s="5">
+      <c r="B958" s="7">
         <v>14.5</v>
       </c>
       <c r="C958" s="1">
@@ -14720,10 +14728,10 @@
       </c>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="5">
+      <c r="A959" s="7">
         <v>18.5</v>
       </c>
-      <c r="B959" s="5">
+      <c r="B959" s="7">
         <v>15.0</v>
       </c>
       <c r="C959" s="1">
@@ -14735,10 +14743,10 @@
       </c>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="5">
+      <c r="A960" s="7">
         <v>20.5</v>
       </c>
-      <c r="B960" s="5">
+      <c r="B960" s="7">
         <v>13.5</v>
       </c>
       <c r="C960" s="1">
@@ -14750,10 +14758,10 @@
       </c>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="5">
+      <c r="A961" s="7">
         <v>22.0</v>
       </c>
-      <c r="B961" s="5">
+      <c r="B961" s="7">
         <v>15.0</v>
       </c>
       <c r="C961" s="1">
@@ -14765,10 +14773,10 @@
       </c>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="5">
+      <c r="A962" s="7">
         <v>23.0</v>
       </c>
-      <c r="B962" s="5">
+      <c r="B962" s="7">
         <v>14.4</v>
       </c>
       <c r="C962" s="1">
@@ -14780,10 +14788,10 @@
       </c>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="5">
+      <c r="A963" s="7">
         <v>21.0</v>
       </c>
-      <c r="B963" s="5">
+      <c r="B963" s="7">
         <v>13.6</v>
       </c>
       <c r="C963" s="1">
@@ -14795,10 +14803,10 @@
       </c>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="5">
+      <c r="A964" s="7">
         <v>23.0</v>
       </c>
-      <c r="B964" s="5">
+      <c r="B964" s="7">
         <v>14.0</v>
       </c>
       <c r="C964" s="1">
@@ -14810,10 +14818,10 @@
       </c>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="5">
+      <c r="A965" s="7">
         <v>20.5</v>
       </c>
-      <c r="B965" s="5">
+      <c r="B965" s="7">
         <v>12.0</v>
       </c>
       <c r="C965" s="1">
@@ -14825,10 +14833,10 @@
       </c>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="5">
+      <c r="A966" s="7">
         <v>20.0</v>
       </c>
-      <c r="B966" s="5">
+      <c r="B966" s="7">
         <v>12.0</v>
       </c>
       <c r="C966" s="1">
@@ -14840,10 +14848,10 @@
       </c>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="5">
+      <c r="A967" s="7">
         <v>19.0</v>
       </c>
-      <c r="B967" s="5">
+      <c r="B967" s="7">
         <v>12.0</v>
       </c>
       <c r="C967" s="1">
@@ -14855,10 +14863,10 @@
       </c>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="5">
+      <c r="A968" s="7">
         <v>16.2</v>
       </c>
-      <c r="B968" s="5">
+      <c r="B968" s="7">
         <v>12.0</v>
       </c>
       <c r="C968" s="1">
@@ -14870,10 +14878,10 @@
       </c>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="5">
+      <c r="A969" s="7">
         <v>20.0</v>
       </c>
-      <c r="B969" s="5">
+      <c r="B969" s="7">
         <v>12.4</v>
       </c>
       <c r="C969" s="1">
@@ -14885,10 +14893,10 @@
       </c>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="5">
+      <c r="A970" s="7">
         <v>18.3</v>
       </c>
-      <c r="B970" s="5">
+      <c r="B970" s="7">
         <v>7.5</v>
       </c>
       <c r="C970" s="1">
@@ -14900,10 +14908,10 @@
       </c>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="5">
+      <c r="A971" s="7">
         <v>20.0</v>
       </c>
-      <c r="B971" s="5">
+      <c r="B971" s="7">
         <v>11.0</v>
       </c>
       <c r="C971" s="1">
@@ -14915,10 +14923,10 @@
       </c>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="5">
+      <c r="A972" s="7">
         <v>19.0</v>
       </c>
-      <c r="B972" s="5">
+      <c r="B972" s="7">
         <v>10.5</v>
       </c>
       <c r="C972" s="1">
@@ -14930,10 +14938,10 @@
       </c>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="5">
+      <c r="A973" s="7">
         <v>19.0</v>
       </c>
-      <c r="B973" s="5">
+      <c r="B973" s="7">
         <v>12.0</v>
       </c>
       <c r="C973" s="1">
@@ -14945,10 +14953,10 @@
       </c>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="5">
+      <c r="A974" s="7">
         <v>17.0</v>
       </c>
-      <c r="B974" s="5">
+      <c r="B974" s="7">
         <v>9.5</v>
       </c>
       <c r="C974" s="1">
@@ -14960,10 +14968,10 @@
       </c>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="5">
+      <c r="A975" s="7">
         <v>17.2</v>
       </c>
-      <c r="B975" s="5">
+      <c r="B975" s="7">
         <v>8.0</v>
       </c>
       <c r="C975" s="1">
@@ -14975,10 +14983,10 @@
       </c>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="5">
+      <c r="A976" s="7">
         <v>20.0</v>
       </c>
-      <c r="B976" s="5">
+      <c r="B976" s="7">
         <v>10.2</v>
       </c>
       <c r="C976" s="1">
@@ -14990,10 +14998,10 @@
       </c>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="5">
+      <c r="A977" s="7">
         <v>21.0</v>
       </c>
-      <c r="B977" s="5">
+      <c r="B977" s="7">
         <v>13.0</v>
       </c>
       <c r="C977" s="1">
@@ -15005,10 +15013,10 @@
       </c>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="5">
+      <c r="A978" s="7">
         <v>23.5</v>
       </c>
-      <c r="B978" s="5">
+      <c r="B978" s="7">
         <v>9.5</v>
       </c>
       <c r="C978" s="1">
@@ -15020,10 +15028,10 @@
       </c>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="5">
+      <c r="A979" s="7">
         <v>19.0</v>
       </c>
-      <c r="B979" s="5">
+      <c r="B979" s="7">
         <v>13.5</v>
       </c>
       <c r="C979" s="1">
@@ -15035,10 +15043,10 @@
       </c>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="5">
+      <c r="A980" s="7">
         <v>18.5</v>
       </c>
-      <c r="B980" s="5">
+      <c r="B980" s="7">
         <v>6.5</v>
       </c>
       <c r="C980" s="1">
@@ -15050,10 +15058,10 @@
       </c>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="5">
+      <c r="A981" s="7">
         <v>21.5</v>
       </c>
-      <c r="B981" s="5">
+      <c r="B981" s="7">
         <v>8.5</v>
       </c>
       <c r="C981" s="1">
@@ -15065,10 +15073,10 @@
       </c>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="5">
+      <c r="A982" s="7">
         <v>21.0</v>
       </c>
-      <c r="B982" s="5">
+      <c r="B982" s="7">
         <v>12.5</v>
       </c>
       <c r="C982" s="1">
@@ -15080,10 +15088,10 @@
       </c>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="5">
+      <c r="A983" s="7">
         <v>22.0</v>
       </c>
-      <c r="B983" s="5">
+      <c r="B983" s="7">
         <v>14.5</v>
       </c>
       <c r="C983" s="1">
@@ -15095,10 +15103,10 @@
       </c>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="5">
+      <c r="A984" s="7">
         <v>19.9</v>
       </c>
-      <c r="B984" s="5">
+      <c r="B984" s="7">
         <v>10.0</v>
       </c>
       <c r="C984" s="1">
@@ -15110,10 +15118,10 @@
       </c>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="5">
+      <c r="A985" s="7">
         <v>14.5</v>
       </c>
-      <c r="B985" s="5">
+      <c r="B985" s="7">
         <v>11.5</v>
       </c>
       <c r="C985" s="1">
@@ -15125,10 +15133,10 @@
       </c>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="5">
+      <c r="A986" s="7">
         <v>15.0</v>
       </c>
-      <c r="B986" s="5">
+      <c r="B986" s="7">
         <v>6.0</v>
       </c>
       <c r="C986" s="1">
@@ -15140,10 +15148,10 @@
       </c>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="5">
+      <c r="A987" s="7">
         <v>17.5</v>
       </c>
-      <c r="B987" s="5">
+      <c r="B987" s="7">
         <v>10.0</v>
       </c>
       <c r="C987" s="1">
@@ -15155,10 +15163,10 @@
       </c>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="5">
+      <c r="A988" s="7">
         <v>18.0</v>
       </c>
-      <c r="B988" s="5">
+      <c r="B988" s="7">
         <v>6.0</v>
       </c>
       <c r="C988" s="1">
@@ -15170,10 +15178,10 @@
       </c>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="5">
+      <c r="A989" s="7">
         <v>17.8</v>
       </c>
-      <c r="B989" s="5">
+      <c r="B989" s="7">
         <v>10.5</v>
       </c>
       <c r="C989" s="1">
@@ -15185,10 +15193,10 @@
       </c>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="5">
+      <c r="A990" s="7">
         <v>17.1</v>
       </c>
-      <c r="B990" s="5">
+      <c r="B990" s="7">
         <v>9.4</v>
       </c>
       <c r="C990" s="1">
@@ -15200,10 +15208,10 @@
       </c>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="A991" s="5">
+      <c r="A991" s="7">
         <v>17.4</v>
       </c>
-      <c r="B991" s="5">
+      <c r="B991" s="7">
         <v>11.0</v>
       </c>
       <c r="C991" s="1">
@@ -15215,10 +15223,10 @@
       </c>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="A992" s="5">
+      <c r="A992" s="7">
         <v>15.0</v>
       </c>
-      <c r="B992" s="5">
+      <c r="B992" s="7">
         <v>8.5</v>
       </c>
       <c r="C992" s="1">
@@ -15230,10 +15238,10 @@
       </c>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="A993" s="5">
+      <c r="A993" s="7">
         <v>14.8</v>
       </c>
-      <c r="B993" s="5">
+      <c r="B993" s="7">
         <v>5.5</v>
       </c>
       <c r="C993" s="1">
@@ -15245,10 +15253,10 @@
       </c>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="A994" s="5">
+      <c r="A994" s="7">
         <v>16.0</v>
       </c>
-      <c r="B994" s="5">
+      <c r="B994" s="7">
         <v>4.0</v>
       </c>
       <c r="C994" s="1">
@@ -15260,10 +15268,10 @@
       </c>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="A995" s="5">
+      <c r="A995" s="7">
         <v>14.8</v>
       </c>
-      <c r="B995" s="5">
+      <c r="B995" s="7">
         <v>8.3</v>
       </c>
       <c r="C995" s="1">
@@ -15275,10 +15283,10 @@
       </c>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="A996" s="5">
+      <c r="A996" s="7">
         <v>13.9</v>
       </c>
-      <c r="B996" s="5">
+      <c r="B996" s="7">
         <v>7.5</v>
       </c>
       <c r="C996" s="1">
@@ -15290,10 +15298,10 @@
       </c>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="A997" s="5">
+      <c r="A997" s="7">
         <v>14.8</v>
       </c>
-      <c r="B997" s="5">
+      <c r="B997" s="7">
         <v>1.0</v>
       </c>
       <c r="C997" s="1">
@@ -15305,10 +15313,10 @@
       </c>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="A998" s="5">
+      <c r="A998" s="7">
         <v>16.0</v>
       </c>
-      <c r="B998" s="5">
+      <c r="B998" s="7">
         <v>2.1</v>
       </c>
       <c r="C998" s="1">
@@ -15320,10 +15328,10 @@
       </c>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="5">
+      <c r="A999" s="7">
         <v>9.5</v>
       </c>
-      <c r="B999" s="5">
+      <c r="B999" s="7">
         <v>5.0</v>
       </c>
       <c r="C999" s="1">
@@ -15335,10 +15343,10 @@
       </c>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="5">
+      <c r="A1000" s="7">
         <v>11.5</v>
       </c>
-      <c r="B1000" s="5">
+      <c r="B1000" s="7">
         <v>8.0</v>
       </c>
       <c r="C1000" s="1">
@@ -15350,10 +15358,10 @@
       </c>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="A1001" s="5">
+      <c r="A1001" s="7">
         <v>15.5</v>
       </c>
-      <c r="B1001" s="5">
+      <c r="B1001" s="7">
         <v>8.5</v>
       </c>
       <c r="C1001" s="1">
@@ -15365,10 +15373,10 @@
       </c>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="A1002" s="5">
+      <c r="A1002" s="7">
         <v>14.5</v>
       </c>
-      <c r="B1002" s="5">
+      <c r="B1002" s="7">
         <v>6.5</v>
       </c>
       <c r="C1002" s="1">
@@ -15380,10 +15388,10 @@
       </c>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="A1003" s="5">
+      <c r="A1003" s="7">
         <v>15.0</v>
       </c>
-      <c r="B1003" s="5">
+      <c r="B1003" s="7">
         <v>9.0</v>
       </c>
       <c r="C1003" s="1">
@@ -15395,10 +15403,10 @@
       </c>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="A1004" s="5">
+      <c r="A1004" s="7">
         <v>15.1</v>
       </c>
-      <c r="B1004" s="5">
+      <c r="B1004" s="7">
         <v>5.5</v>
       </c>
       <c r="C1004" s="1">
@@ -15410,10 +15418,10 @@
       </c>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="A1005" s="5">
+      <c r="A1005" s="7">
         <v>16.2</v>
       </c>
-      <c r="B1005" s="5">
+      <c r="B1005" s="7">
         <v>7.8</v>
       </c>
       <c r="C1005" s="1">
@@ -15425,10 +15433,10 @@
       </c>
     </row>
     <row r="1006" ht="15.75" customHeight="1">
-      <c r="A1006" s="5">
+      <c r="A1006" s="7">
         <v>15.5</v>
       </c>
-      <c r="B1006" s="5">
+      <c r="B1006" s="7">
         <v>5.0</v>
       </c>
       <c r="C1006" s="1">
@@ -15440,10 +15448,10 @@
       </c>
     </row>
     <row r="1007" ht="15.75" customHeight="1">
-      <c r="A1007" s="5">
+      <c r="A1007" s="7">
         <v>14.0</v>
       </c>
-      <c r="B1007" s="5">
+      <c r="B1007" s="7">
         <v>8.5</v>
       </c>
       <c r="C1007" s="1">
@@ -15455,10 +15463,10 @@
       </c>
     </row>
     <row r="1008" ht="15.75" customHeight="1">
-      <c r="A1008" s="5">
+      <c r="A1008" s="7">
         <v>13.0</v>
       </c>
-      <c r="B1008" s="5">
+      <c r="B1008" s="7">
         <v>6.0</v>
       </c>
       <c r="C1008" s="1">
@@ -15470,10 +15478,10 @@
       </c>
     </row>
     <row r="1009" ht="15.75" customHeight="1">
-      <c r="A1009" s="5">
+      <c r="A1009" s="7">
         <v>14.5</v>
       </c>
-      <c r="B1009" s="5">
+      <c r="B1009" s="7">
         <v>4.5</v>
       </c>
       <c r="C1009" s="1">
@@ -15485,10 +15493,10 @@
       </c>
     </row>
     <row r="1010" ht="15.75" customHeight="1">
-      <c r="A1010" s="5">
+      <c r="A1010" s="7">
         <v>12.6</v>
       </c>
-      <c r="B1010" s="5">
+      <c r="B1010" s="7">
         <v>6.0</v>
       </c>
       <c r="C1010" s="1">
@@ -15500,10 +15508,10 @@
       </c>
     </row>
     <row r="1011" ht="15.75" customHeight="1">
-      <c r="A1011" s="5">
+      <c r="A1011" s="7">
         <v>14.5</v>
       </c>
-      <c r="B1011" s="5">
+      <c r="B1011" s="7">
         <v>1.2</v>
       </c>
       <c r="C1011" s="1">
@@ -15515,10 +15523,10 @@
       </c>
     </row>
     <row r="1012" ht="15.75" customHeight="1">
-      <c r="A1012" s="5">
+      <c r="A1012" s="7">
         <v>13.4</v>
       </c>
-      <c r="B1012" s="5">
+      <c r="B1012" s="7">
         <v>1.0</v>
       </c>
       <c r="C1012" s="1">
@@ -15530,10 +15538,10 @@
       </c>
     </row>
     <row r="1013" ht="15.75" customHeight="1">
-      <c r="A1013" s="5">
+      <c r="A1013" s="7">
         <v>13.0</v>
       </c>
-      <c r="B1013" s="5">
+      <c r="B1013" s="7">
         <v>2.0</v>
       </c>
       <c r="C1013" s="1">
@@ -15545,10 +15553,10 @@
       </c>
     </row>
     <row r="1014" ht="15.75" customHeight="1">
-      <c r="A1014" s="5">
+      <c r="A1014" s="7">
         <v>14.5</v>
       </c>
-      <c r="B1014" s="5">
+      <c r="B1014" s="7">
         <v>1.8</v>
       </c>
       <c r="C1014" s="1">
@@ -15560,10 +15568,10 @@
       </c>
     </row>
     <row r="1015" ht="15.75" customHeight="1">
-      <c r="A1015" s="5">
+      <c r="A1015" s="7">
         <v>14.5</v>
       </c>
-      <c r="B1015" s="5">
+      <c r="B1015" s="7">
         <v>1.7</v>
       </c>
       <c r="C1015" s="1">
@@ -15575,10 +15583,10 @@
       </c>
     </row>
     <row r="1016" ht="15.75" customHeight="1">
-      <c r="A1016" s="5">
+      <c r="A1016" s="7">
         <v>12.5</v>
       </c>
-      <c r="B1016" s="5">
+      <c r="B1016" s="7">
         <v>10.0</v>
       </c>
       <c r="C1016" s="1">
@@ -15590,10 +15598,10 @@
       </c>
     </row>
     <row r="1017" ht="15.75" customHeight="1">
-      <c r="A1017" s="5">
+      <c r="A1017" s="7">
         <v>12.4</v>
       </c>
-      <c r="B1017" s="5">
+      <c r="B1017" s="7">
         <v>2.5</v>
       </c>
       <c r="C1017" s="1">
@@ -15605,10 +15613,10 @@
       </c>
     </row>
     <row r="1018" ht="15.75" customHeight="1">
-      <c r="A1018" s="5">
+      <c r="A1018" s="7">
         <v>12.1</v>
       </c>
-      <c r="B1018" s="5">
+      <c r="B1018" s="7">
         <v>1.0</v>
       </c>
       <c r="C1018" s="1">
@@ -15620,10 +15628,10 @@
       </c>
     </row>
     <row r="1019" ht="15.75" customHeight="1">
-      <c r="A1019" s="5">
+      <c r="A1019" s="7">
         <v>10.7</v>
       </c>
-      <c r="B1019" s="5">
+      <c r="B1019" s="7">
         <v>2.0</v>
       </c>
       <c r="C1019" s="1">
@@ -15635,10 +15643,10 @@
       </c>
     </row>
     <row r="1020" ht="15.75" customHeight="1">
-      <c r="A1020" s="5">
+      <c r="A1020" s="7">
         <v>9.5</v>
       </c>
-      <c r="B1020" s="5">
+      <c r="B1020" s="7">
         <v>4.0</v>
       </c>
       <c r="C1020" s="1">
@@ -15650,10 +15658,10 @@
       </c>
     </row>
     <row r="1021" ht="15.75" customHeight="1">
-      <c r="A1021" s="5">
+      <c r="A1021" s="7">
         <v>13.5</v>
       </c>
-      <c r="B1021" s="5">
+      <c r="B1021" s="7">
         <v>4.5</v>
       </c>
       <c r="C1021" s="1">
@@ -15665,10 +15673,10 @@
       </c>
     </row>
     <row r="1022" ht="15.75" customHeight="1">
-      <c r="A1022" s="5">
+      <c r="A1022" s="7">
         <v>11.8</v>
       </c>
-      <c r="B1022" s="5">
+      <c r="B1022" s="7">
         <v>6.5</v>
       </c>
       <c r="C1022" s="1">
@@ -15680,10 +15688,10 @@
       </c>
     </row>
     <row r="1023" ht="15.75" customHeight="1">
-      <c r="A1023" s="5">
+      <c r="A1023" s="7">
         <v>15.0</v>
       </c>
-      <c r="B1023" s="5">
+      <c r="B1023" s="7">
         <v>9.0</v>
       </c>
       <c r="C1023" s="1">
@@ -15695,10 +15703,10 @@
       </c>
     </row>
     <row r="1024" ht="15.75" customHeight="1">
-      <c r="A1024" s="5">
+      <c r="A1024" s="7">
         <v>12.0</v>
       </c>
-      <c r="B1024" s="5">
+      <c r="B1024" s="7">
         <v>6.5</v>
       </c>
       <c r="C1024" s="1">
@@ -15710,10 +15718,10 @@
       </c>
     </row>
     <row r="1025" ht="15.75" customHeight="1">
-      <c r="A1025" s="5">
+      <c r="A1025" s="7">
         <v>15.8</v>
       </c>
-      <c r="B1025" s="5">
+      <c r="B1025" s="7">
         <v>8.3</v>
       </c>
       <c r="C1025" s="1">
@@ -15725,10 +15733,10 @@
       </c>
     </row>
     <row r="1026" ht="15.75" customHeight="1">
-      <c r="A1026" s="5">
+      <c r="A1026" s="7">
         <v>15.0</v>
       </c>
-      <c r="B1026" s="5">
+      <c r="B1026" s="7">
         <v>6.6</v>
       </c>
       <c r="C1026" s="1">
@@ -15740,10 +15748,10 @@
       </c>
     </row>
     <row r="1027" ht="15.75" customHeight="1">
-      <c r="A1027" s="5">
+      <c r="A1027" s="7">
         <v>13.8</v>
       </c>
-      <c r="B1027" s="5">
+      <c r="B1027" s="7">
         <v>4.5</v>
       </c>
       <c r="C1027" s="1">
@@ -15755,10 +15763,10 @@
       </c>
     </row>
     <row r="1028" ht="15.75" customHeight="1">
-      <c r="A1028" s="5">
+      <c r="A1028" s="7">
         <v>13.0</v>
       </c>
-      <c r="B1028" s="5">
+      <c r="B1028" s="7">
         <v>7.5</v>
       </c>
       <c r="C1028" s="1">
@@ -15770,10 +15778,10 @@
       </c>
     </row>
     <row r="1029" ht="15.75" customHeight="1">
-      <c r="A1029" s="5">
+      <c r="A1029" s="7">
         <v>12.0</v>
       </c>
-      <c r="B1029" s="5">
+      <c r="B1029" s="7">
         <v>11.0</v>
       </c>
       <c r="C1029" s="1">
@@ -15785,10 +15793,10 @@
       </c>
     </row>
     <row r="1030" ht="15.75" customHeight="1">
-      <c r="A1030" s="5">
+      <c r="A1030" s="7">
         <v>11.5</v>
       </c>
-      <c r="B1030" s="5">
+      <c r="B1030" s="7">
         <v>10.5</v>
       </c>
       <c r="C1030" s="1">
@@ -15800,10 +15808,10 @@
       </c>
     </row>
     <row r="1031" ht="15.75" customHeight="1">
-      <c r="A1031" s="5">
+      <c r="A1031" s="7">
         <v>8.5</v>
       </c>
-      <c r="B1031" s="5">
+      <c r="B1031" s="7">
         <v>4.0</v>
       </c>
       <c r="C1031" s="1">
@@ -15815,10 +15823,10 @@
       </c>
     </row>
     <row r="1032" ht="15.75" customHeight="1">
-      <c r="A1032" s="5">
+      <c r="A1032" s="7">
         <v>8.8</v>
       </c>
-      <c r="B1032" s="5">
+      <c r="B1032" s="7">
         <v>-1.5</v>
       </c>
       <c r="C1032" s="1">
@@ -15830,10 +15838,10 @@
       </c>
     </row>
     <row r="1033" ht="15.75" customHeight="1">
-      <c r="A1033" s="5">
+      <c r="A1033" s="7">
         <v>9.0</v>
       </c>
-      <c r="B1033" s="5">
+      <c r="B1033" s="7">
         <v>-0.8</v>
       </c>
       <c r="C1033" s="1">
@@ -15845,10 +15853,10 @@
       </c>
     </row>
     <row r="1034" ht="15.75" customHeight="1">
-      <c r="A1034" s="5">
+      <c r="A1034" s="7">
         <v>9.3</v>
       </c>
-      <c r="B1034" s="5">
+      <c r="B1034" s="7">
         <v>2.0</v>
       </c>
       <c r="C1034" s="1">
@@ -15860,10 +15868,10 @@
       </c>
     </row>
     <row r="1035" ht="15.75" customHeight="1">
-      <c r="A1035" s="5">
+      <c r="A1035" s="7">
         <v>10.5</v>
       </c>
-      <c r="B1035" s="5">
+      <c r="B1035" s="7">
         <v>2.5</v>
       </c>
       <c r="C1035" s="1">
@@ -15875,10 +15883,10 @@
       </c>
     </row>
     <row r="1036" ht="15.75" customHeight="1">
-      <c r="A1036" s="5">
+      <c r="A1036" s="7">
         <v>7.2</v>
       </c>
-      <c r="B1036" s="5">
+      <c r="B1036" s="7">
         <v>5.0</v>
       </c>
       <c r="C1036" s="1">
@@ -15890,10 +15898,10 @@
       </c>
     </row>
     <row r="1037" ht="15.75" customHeight="1">
-      <c r="A1037" s="5">
+      <c r="A1037" s="7">
         <v>8.1</v>
       </c>
-      <c r="B1037" s="5">
+      <c r="B1037" s="7">
         <v>-0.5</v>
       </c>
       <c r="C1037" s="1">
@@ -15905,10 +15913,10 @@
       </c>
     </row>
     <row r="1038" ht="15.75" customHeight="1">
-      <c r="A1038" s="5">
+      <c r="A1038" s="7">
         <v>8.4</v>
       </c>
-      <c r="B1038" s="5">
+      <c r="B1038" s="7">
         <v>2.0</v>
       </c>
       <c r="C1038" s="1">
@@ -15920,10 +15928,10 @@
       </c>
     </row>
     <row r="1039" ht="15.75" customHeight="1">
-      <c r="A1039" s="5">
+      <c r="A1039" s="7">
         <v>8.0</v>
       </c>
-      <c r="B1039" s="5">
+      <c r="B1039" s="7">
         <v>0.4</v>
       </c>
       <c r="C1039" s="1">
@@ -15935,10 +15943,10 @@
       </c>
     </row>
     <row r="1040" ht="15.75" customHeight="1">
-      <c r="A1040" s="5">
+      <c r="A1040" s="7">
         <v>9.6</v>
       </c>
-      <c r="B1040" s="5">
+      <c r="B1040" s="7">
         <v>1.6</v>
       </c>
       <c r="C1040" s="1">
@@ -15950,10 +15958,10 @@
       </c>
     </row>
     <row r="1041" ht="15.75" customHeight="1">
-      <c r="A1041" s="5">
+      <c r="A1041" s="7">
         <v>10.5</v>
       </c>
-      <c r="B1041" s="5">
+      <c r="B1041" s="7">
         <v>0.0</v>
       </c>
       <c r="C1041" s="1">
@@ -15965,10 +15973,10 @@
       </c>
     </row>
     <row r="1042" ht="15.75" customHeight="1">
-      <c r="A1042" s="5">
+      <c r="A1042" s="7">
         <v>11.0</v>
       </c>
-      <c r="B1042" s="5">
+      <c r="B1042" s="7">
         <v>1.5</v>
       </c>
       <c r="C1042" s="1">
@@ -15980,10 +15988,10 @@
       </c>
     </row>
     <row r="1043" ht="15.75" customHeight="1">
-      <c r="A1043" s="5">
+      <c r="A1043" s="7">
         <v>11.2</v>
       </c>
-      <c r="B1043" s="5">
+      <c r="B1043" s="7">
         <v>7.5</v>
       </c>
       <c r="C1043" s="1">
@@ -15995,10 +16003,10 @@
       </c>
     </row>
     <row r="1044" ht="15.75" customHeight="1">
-      <c r="A1044" s="5">
+      <c r="A1044" s="7">
         <v>11.8</v>
       </c>
-      <c r="B1044" s="5">
+      <c r="B1044" s="7">
         <v>5.9</v>
       </c>
       <c r="C1044" s="1">
@@ -16010,10 +16018,10 @@
       </c>
     </row>
     <row r="1045" ht="15.75" customHeight="1">
-      <c r="A1045" s="5">
+      <c r="A1045" s="7">
         <v>9.3</v>
       </c>
-      <c r="B1045" s="5">
+      <c r="B1045" s="7">
         <v>6.4</v>
       </c>
       <c r="C1045" s="1">
@@ -16025,10 +16033,10 @@
       </c>
     </row>
     <row r="1046" ht="15.75" customHeight="1">
-      <c r="A1046" s="5">
+      <c r="A1046" s="7">
         <v>9.1</v>
       </c>
-      <c r="B1046" s="5">
+      <c r="B1046" s="7">
         <v>1.2</v>
       </c>
       <c r="C1046" s="1">
@@ -16040,10 +16048,10 @@
       </c>
     </row>
     <row r="1047" ht="15.75" customHeight="1">
-      <c r="A1047" s="5">
+      <c r="A1047" s="7">
         <v>11.5</v>
       </c>
-      <c r="B1047" s="5">
+      <c r="B1047" s="7">
         <v>0.9</v>
       </c>
       <c r="C1047" s="1">
@@ -16055,10 +16063,10 @@
       </c>
     </row>
     <row r="1048" ht="15.75" customHeight="1">
-      <c r="A1048" s="5">
+      <c r="A1048" s="7">
         <v>13.0</v>
       </c>
-      <c r="B1048" s="5">
+      <c r="B1048" s="7">
         <v>0.4</v>
       </c>
       <c r="C1048" s="1">
@@ -16070,10 +16078,10 @@
       </c>
     </row>
     <row r="1049" ht="15.75" customHeight="1">
-      <c r="A1049" s="5">
+      <c r="A1049" s="7">
         <v>13.4</v>
       </c>
-      <c r="B1049" s="5">
+      <c r="B1049" s="7">
         <v>11.5</v>
       </c>
       <c r="C1049" s="1">
@@ -16085,10 +16093,10 @@
       </c>
     </row>
     <row r="1050" ht="15.75" customHeight="1">
-      <c r="A1050" s="5">
+      <c r="A1050" s="7">
         <v>13.3</v>
       </c>
-      <c r="B1050" s="5">
+      <c r="B1050" s="7">
         <v>10.2</v>
       </c>
       <c r="C1050" s="1">
@@ -16100,10 +16108,10 @@
       </c>
     </row>
     <row r="1051" ht="15.75" customHeight="1">
-      <c r="A1051" s="5">
+      <c r="A1051" s="7">
         <v>11.9</v>
       </c>
-      <c r="B1051" s="5">
+      <c r="B1051" s="7">
         <v>8.1</v>
       </c>
       <c r="C1051" s="1">
@@ -16115,10 +16123,10 @@
       </c>
     </row>
     <row r="1052" ht="15.75" customHeight="1">
-      <c r="A1052" s="5">
+      <c r="A1052" s="7">
         <v>8.2</v>
       </c>
-      <c r="B1052" s="5">
+      <c r="B1052" s="7">
         <v>4.0</v>
       </c>
       <c r="C1052" s="1">
@@ -16130,10 +16138,10 @@
       </c>
     </row>
     <row r="1053" ht="15.75" customHeight="1">
-      <c r="A1053" s="5">
+      <c r="A1053" s="7">
         <v>8.3</v>
       </c>
-      <c r="B1053" s="5">
+      <c r="B1053" s="7">
         <v>1.8</v>
       </c>
       <c r="C1053" s="1">
@@ -16145,10 +16153,10 @@
       </c>
     </row>
     <row r="1054" ht="15.75" customHeight="1">
-      <c r="A1054" s="5">
+      <c r="A1054" s="7">
         <v>11.6</v>
       </c>
-      <c r="B1054" s="5">
+      <c r="B1054" s="7">
         <v>-1.0</v>
       </c>
       <c r="C1054" s="1">
@@ -16160,10 +16168,10 @@
       </c>
     </row>
     <row r="1055" ht="15.75" customHeight="1">
-      <c r="A1055" s="5">
+      <c r="A1055" s="7">
         <v>13.5</v>
       </c>
-      <c r="B1055" s="5">
+      <c r="B1055" s="7">
         <v>-0.5</v>
       </c>
       <c r="C1055" s="1">
@@ -16175,10 +16183,10 @@
       </c>
     </row>
     <row r="1056" ht="15.75" customHeight="1">
-      <c r="A1056" s="5">
+      <c r="A1056" s="7">
         <v>12.5</v>
       </c>
-      <c r="B1056" s="5">
+      <c r="B1056" s="7">
         <v>9.3</v>
       </c>
       <c r="C1056" s="1">
@@ -16190,10 +16198,10 @@
       </c>
     </row>
     <row r="1057" ht="15.75" customHeight="1">
-      <c r="A1057" s="5">
+      <c r="A1057" s="7">
         <v>10.5</v>
       </c>
-      <c r="B1057" s="5">
+      <c r="B1057" s="7">
         <v>2.0</v>
       </c>
       <c r="C1057" s="1">
@@ -16205,10 +16213,10 @@
       </c>
     </row>
     <row r="1058" ht="15.75" customHeight="1">
-      <c r="A1058" s="5">
+      <c r="A1058" s="7">
         <v>7.2</v>
       </c>
-      <c r="B1058" s="5">
+      <c r="B1058" s="7">
         <v>3.1</v>
       </c>
       <c r="C1058" s="1">
@@ -16220,10 +16228,10 @@
       </c>
     </row>
     <row r="1059" ht="15.75" customHeight="1">
-      <c r="A1059" s="5">
+      <c r="A1059" s="7">
         <v>8.0</v>
       </c>
-      <c r="B1059" s="5">
+      <c r="B1059" s="7">
         <v>2.6</v>
       </c>
       <c r="C1059" s="1">
@@ -16235,10 +16243,10 @@
       </c>
     </row>
     <row r="1060" ht="15.75" customHeight="1">
-      <c r="A1060" s="5">
+      <c r="A1060" s="7">
         <v>3.2</v>
       </c>
-      <c r="B1060" s="5">
+      <c r="B1060" s="7">
         <v>-1.3</v>
       </c>
       <c r="C1060" s="1">
@@ -16250,10 +16258,10 @@
       </c>
     </row>
     <row r="1061" ht="15.75" customHeight="1">
-      <c r="A1061" s="5">
+      <c r="A1061" s="7">
         <v>4.9</v>
       </c>
-      <c r="B1061" s="5">
+      <c r="B1061" s="7">
         <v>0.5</v>
       </c>
       <c r="C1061" s="1">
@@ -16265,10 +16273,10 @@
       </c>
     </row>
     <row r="1062" ht="15.75" customHeight="1">
-      <c r="A1062" s="5">
+      <c r="A1062" s="7">
         <v>7.8</v>
       </c>
-      <c r="B1062" s="5">
+      <c r="B1062" s="7">
         <v>0.8</v>
       </c>
       <c r="C1062" s="1">
@@ -16280,10 +16288,10 @@
       </c>
     </row>
     <row r="1063" ht="15.75" customHeight="1">
-      <c r="A1063" s="5">
+      <c r="A1063" s="7">
         <v>7.2</v>
       </c>
-      <c r="B1063" s="5">
+      <c r="B1063" s="7">
         <v>1.5</v>
       </c>
       <c r="C1063" s="1">
@@ -16295,10 +16303,10 @@
       </c>
     </row>
     <row r="1064" ht="15.75" customHeight="1">
-      <c r="A1064" s="5">
+      <c r="A1064" s="7">
         <v>6.5</v>
       </c>
-      <c r="B1064" s="5">
+      <c r="B1064" s="7">
         <v>-1.4</v>
       </c>
       <c r="C1064" s="1">
@@ -16310,10 +16318,10 @@
       </c>
     </row>
     <row r="1065" ht="15.75" customHeight="1">
-      <c r="A1065" s="5">
+      <c r="A1065" s="7">
         <v>3.0</v>
       </c>
-      <c r="B1065" s="5">
+      <c r="B1065" s="7">
         <v>-2.0</v>
       </c>
       <c r="C1065" s="1">
@@ -16325,10 +16333,10 @@
       </c>
     </row>
     <row r="1066" ht="15.75" customHeight="1">
-      <c r="A1066" s="5">
+      <c r="A1066" s="7">
         <v>5.0</v>
       </c>
-      <c r="B1066" s="5">
+      <c r="B1066" s="7">
         <v>-1.5</v>
       </c>
       <c r="C1066" s="1">
@@ -16340,10 +16348,10 @@
       </c>
     </row>
     <row r="1067" ht="15.75" customHeight="1">
-      <c r="A1067" s="5">
+      <c r="A1067" s="7">
         <v>6.3</v>
       </c>
-      <c r="B1067" s="5">
+      <c r="B1067" s="7">
         <v>-0.5</v>
       </c>
       <c r="C1067" s="1">
@@ -16355,10 +16363,10 @@
       </c>
     </row>
     <row r="1068" ht="15.75" customHeight="1">
-      <c r="A1068" s="5">
+      <c r="A1068" s="7">
         <v>9.5</v>
       </c>
-      <c r="B1068" s="5">
+      <c r="B1068" s="7">
         <v>0.2</v>
       </c>
       <c r="C1068" s="1">
@@ -16370,10 +16378,10 @@
       </c>
     </row>
     <row r="1069" ht="15.75" customHeight="1">
-      <c r="A1069" s="5">
+      <c r="A1069" s="7">
         <v>7.5</v>
       </c>
-      <c r="B1069" s="5">
+      <c r="B1069" s="7">
         <v>2.4</v>
       </c>
       <c r="C1069" s="1">
@@ -16385,10 +16393,10 @@
       </c>
     </row>
     <row r="1070" ht="15.75" customHeight="1">
-      <c r="A1070" s="5">
+      <c r="A1070" s="7">
         <v>6.7</v>
       </c>
-      <c r="B1070" s="5">
+      <c r="B1070" s="7">
         <v>0.5</v>
       </c>
       <c r="C1070" s="1">
@@ -16400,10 +16408,10 @@
       </c>
     </row>
     <row r="1071" ht="15.75" customHeight="1">
-      <c r="A1071" s="5">
+      <c r="A1071" s="7">
         <v>5.4</v>
       </c>
-      <c r="B1071" s="5">
+      <c r="B1071" s="7">
         <v>-1.5</v>
       </c>
       <c r="C1071" s="1">
@@ -16415,10 +16423,10 @@
       </c>
     </row>
     <row r="1072" ht="15.75" customHeight="1">
-      <c r="A1072" s="5">
+      <c r="A1072" s="7">
         <v>6.2</v>
       </c>
-      <c r="B1072" s="5">
+      <c r="B1072" s="7">
         <v>-1.4</v>
       </c>
       <c r="C1072" s="1">
@@ -16430,10 +16438,10 @@
       </c>
     </row>
     <row r="1073" ht="15.75" customHeight="1">
-      <c r="A1073" s="5">
+      <c r="A1073" s="7">
         <v>7.4</v>
       </c>
-      <c r="B1073" s="5">
+      <c r="B1073" s="7">
         <v>0.4</v>
       </c>
       <c r="C1073" s="1">
@@ -16445,10 +16453,10 @@
       </c>
     </row>
     <row r="1074" ht="15.75" customHeight="1">
-      <c r="A1074" s="5">
+      <c r="A1074" s="7">
         <v>7.6</v>
       </c>
-      <c r="B1074" s="5">
+      <c r="B1074" s="7">
         <v>-1.2</v>
       </c>
       <c r="C1074" s="1">
@@ -16460,10 +16468,10 @@
       </c>
     </row>
     <row r="1075" ht="15.75" customHeight="1">
-      <c r="A1075" s="5">
+      <c r="A1075" s="7">
         <v>7.6</v>
       </c>
-      <c r="B1075" s="5">
+      <c r="B1075" s="7">
         <v>0.6</v>
       </c>
       <c r="C1075" s="1">
@@ -16475,10 +16483,10 @@
       </c>
     </row>
     <row r="1076" ht="15.75" customHeight="1">
-      <c r="A1076" s="5">
+      <c r="A1076" s="7">
         <v>4.3</v>
       </c>
-      <c r="B1076" s="5">
+      <c r="B1076" s="7">
         <v>-3.1</v>
       </c>
       <c r="C1076" s="1">
@@ -16490,10 +16498,10 @@
       </c>
     </row>
     <row r="1077" ht="15.75" customHeight="1">
-      <c r="A1077" s="5">
+      <c r="A1077" s="7">
         <v>2.5</v>
       </c>
-      <c r="B1077" s="5">
+      <c r="B1077" s="7">
         <v>-3.0</v>
       </c>
       <c r="C1077" s="1">
@@ -16505,10 +16513,10 @@
       </c>
     </row>
     <row r="1078" ht="15.75" customHeight="1">
-      <c r="A1078" s="5">
+      <c r="A1078" s="7">
         <v>5.0</v>
       </c>
-      <c r="B1078" s="5">
+      <c r="B1078" s="7">
         <v>-1.5</v>
       </c>
       <c r="C1078" s="1">
@@ -16520,10 +16528,10 @@
       </c>
     </row>
     <row r="1079" ht="15.75" customHeight="1">
-      <c r="A1079" s="5">
+      <c r="A1079" s="7">
         <v>7.3</v>
       </c>
-      <c r="B1079" s="5">
+      <c r="B1079" s="7">
         <v>-1.5</v>
       </c>
       <c r="C1079" s="1">
@@ -16535,10 +16543,10 @@
       </c>
     </row>
     <row r="1080" ht="15.75" customHeight="1">
-      <c r="A1080" s="5">
+      <c r="A1080" s="7">
         <v>8.0</v>
       </c>
-      <c r="B1080" s="5">
+      <c r="B1080" s="7">
         <v>-0.8</v>
       </c>
       <c r="C1080" s="1">
@@ -16550,10 +16558,10 @@
       </c>
     </row>
     <row r="1081" ht="15.75" customHeight="1">
-      <c r="A1081" s="5">
+      <c r="A1081" s="7">
         <v>8.6</v>
       </c>
-      <c r="B1081" s="5">
+      <c r="B1081" s="7">
         <v>4.0</v>
       </c>
       <c r="C1081" s="1">
@@ -16565,10 +16573,10 @@
       </c>
     </row>
     <row r="1082" ht="15.75" customHeight="1">
-      <c r="A1082" s="5">
+      <c r="A1082" s="7">
         <v>9.4</v>
       </c>
-      <c r="B1082" s="5">
+      <c r="B1082" s="7">
         <v>2.1</v>
       </c>
       <c r="C1082" s="1">
@@ -16580,10 +16588,10 @@
       </c>
     </row>
     <row r="1083" ht="15.75" customHeight="1">
-      <c r="A1083" s="5">
+      <c r="A1083" s="7">
         <v>8.4</v>
       </c>
-      <c r="B1083" s="5">
+      <c r="B1083" s="7">
         <v>3.1</v>
       </c>
       <c r="C1083" s="1">
@@ -16595,10 +16603,10 @@
       </c>
     </row>
     <row r="1084" ht="15.75" customHeight="1">
-      <c r="A1084" s="5">
+      <c r="A1084" s="7">
         <v>8.2</v>
       </c>
-      <c r="B1084" s="5">
+      <c r="B1084" s="7">
         <v>1.5</v>
       </c>
       <c r="C1084" s="1">
@@ -16610,10 +16618,10 @@
       </c>
     </row>
     <row r="1085" ht="15.75" customHeight="1">
-      <c r="A1085" s="5">
+      <c r="A1085" s="7">
         <v>9.5</v>
       </c>
-      <c r="B1085" s="5">
+      <c r="B1085" s="7">
         <v>1.1</v>
       </c>
       <c r="C1085" s="1">
@@ -16625,10 +16633,10 @@
       </c>
     </row>
     <row r="1086" ht="15.75" customHeight="1">
-      <c r="A1086" s="5">
+      <c r="A1086" s="7">
         <v>8.0</v>
       </c>
-      <c r="B1086" s="5">
+      <c r="B1086" s="7">
         <v>5.4</v>
       </c>
       <c r="C1086" s="1">
@@ -16640,10 +16648,10 @@
       </c>
     </row>
     <row r="1087" ht="15.75" customHeight="1">
-      <c r="A1087" s="5">
+      <c r="A1087" s="7">
         <v>12.4</v>
       </c>
-      <c r="B1087" s="5">
+      <c r="B1087" s="7">
         <v>3.4</v>
       </c>
       <c r="C1087" s="1">
@@ -16655,10 +16663,10 @@
       </c>
     </row>
     <row r="1088" ht="15.75" customHeight="1">
-      <c r="A1088" s="5">
+      <c r="A1088" s="7">
         <v>13.0</v>
       </c>
-      <c r="B1088" s="5">
+      <c r="B1088" s="7">
         <v>2.6</v>
       </c>
       <c r="C1088" s="1">
@@ -16670,10 +16678,10 @@
       </c>
     </row>
     <row r="1089" ht="15.75" customHeight="1">
-      <c r="A1089" s="5">
+      <c r="A1089" s="7">
         <v>9.2</v>
       </c>
-      <c r="B1089" s="5">
+      <c r="B1089" s="7">
         <v>6.5</v>
       </c>
       <c r="C1089" s="1">
@@ -16685,10 +16693,10 @@
       </c>
     </row>
     <row r="1090" ht="15.75" customHeight="1">
-      <c r="A1090" s="5">
+      <c r="A1090" s="7">
         <v>9.5</v>
       </c>
-      <c r="B1090" s="5">
+      <c r="B1090" s="7">
         <v>4.0</v>
       </c>
       <c r="C1090" s="1">
@@ -16700,10 +16708,10 @@
       </c>
     </row>
     <row r="1091" ht="15.75" customHeight="1">
-      <c r="A1091" s="5">
+      <c r="A1091" s="7">
         <v>7.8</v>
       </c>
-      <c r="B1091" s="5">
+      <c r="B1091" s="7">
         <v>3.4</v>
       </c>
       <c r="C1091" s="1">
@@ -16715,10 +16723,10 @@
       </c>
     </row>
     <row r="1092" ht="15.75" customHeight="1">
-      <c r="A1092" s="5">
+      <c r="A1092" s="7">
         <v>8.3</v>
       </c>
-      <c r="B1092" s="5">
+      <c r="B1092" s="7">
         <v>1.5</v>
       </c>
       <c r="C1092" s="1">
@@ -16730,10 +16738,10 @@
       </c>
     </row>
     <row r="1093" ht="15.75" customHeight="1">
-      <c r="A1093" s="5">
+      <c r="A1093" s="7">
         <v>11.0</v>
       </c>
-      <c r="B1093" s="5">
+      <c r="B1093" s="7">
         <v>3.3</v>
       </c>
       <c r="C1093" s="1">
@@ -16745,10 +16753,10 @@
       </c>
     </row>
     <row r="1094" ht="15.75" customHeight="1">
-      <c r="A1094" s="5">
+      <c r="A1094" s="7">
         <v>12.5</v>
       </c>
-      <c r="B1094" s="5">
+      <c r="B1094" s="7">
         <v>3.0</v>
       </c>
       <c r="C1094" s="1">
@@ -16760,10 +16768,10 @@
       </c>
     </row>
     <row r="1095" ht="15.75" customHeight="1">
-      <c r="A1095" s="5">
+      <c r="A1095" s="7">
         <v>7.5</v>
       </c>
-      <c r="B1095" s="5">
+      <c r="B1095" s="7">
         <v>6.4</v>
       </c>
       <c r="C1095" s="1">
@@ -16775,10 +16783,10 @@
       </c>
     </row>
     <row r="1096" ht="15.75" customHeight="1">
-      <c r="A1096" s="5">
+      <c r="A1096" s="7">
         <v>10.9</v>
       </c>
-      <c r="B1096" s="5">
+      <c r="B1096" s="7">
         <v>1.6</v>
       </c>
       <c r="C1096" s="1">
@@ -16790,10 +16798,10 @@
       </c>
     </row>
     <row r="1097" ht="15.75" customHeight="1">
-      <c r="A1097" s="5">
+      <c r="A1097" s="7">
         <v>10.4</v>
       </c>
-      <c r="B1097" s="5">
+      <c r="B1097" s="7">
         <v>4.1</v>
       </c>
       <c r="C1097" s="1">
@@ -16823,9 +16831,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
-        <v>4</v>
+      <c r="A1" s="8"/>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
